--- a/Reversi/time.xlsx
+++ b/Reversi/time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_experimental_course\Reversi2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_experimental_course\Reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FBDB21-549E-4DAC-9A0E-90D3FD7D1B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB74597-19BC-4886-B4BC-D89748FB33C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="168">
   <si>
     <t>Student</t>
   </si>
@@ -68,7 +68,7 @@
     <t>DB2021100944</t>
   </si>
   <si>
-    <t>0.0027380040145769807</t>
+    <t>0.00776865440705184</t>
   </si>
   <si>
     <t/>
@@ -77,145 +77,466 @@
     <t>DB2021101011</t>
   </si>
   <si>
-    <t>2.3558297238093933</t>
+    <t>0.7529228247050844</t>
+  </si>
+  <si>
+    <t>DB2021101121</t>
+  </si>
+  <si>
+    <t>5.695250543897345</t>
+  </si>
+  <si>
+    <t>DB2021101273</t>
+  </si>
+  <si>
+    <t>0.755918122308208</t>
+  </si>
+  <si>
+    <t>DB2021160887</t>
+  </si>
+  <si>
+    <t>0.9300937788345915</t>
+  </si>
+  <si>
+    <t>DB2022100280</t>
+  </si>
+  <si>
+    <t>0.7568127270503721</t>
   </si>
   <si>
     <t>DB2022100281</t>
   </si>
   <si>
-    <t>2.4571882800249987</t>
+    <t>0.8383061450461731</t>
+  </si>
+  <si>
+    <t>DB2022100491</t>
+  </si>
+  <si>
+    <t>1.5326820788667577</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Slow Player </t>
+  </si>
+  <si>
+    <t>DB2022100492</t>
+  </si>
+  <si>
+    <t>0.7370177665901092</t>
+  </si>
+  <si>
+    <t>DB2022100604</t>
+  </si>
+  <si>
+    <t>0.7536380433171364</t>
+  </si>
+  <si>
+    <t>DB2022100606</t>
+  </si>
+  <si>
+    <t>0.6981218605277572</t>
   </si>
   <si>
     <t>DB2022101143</t>
   </si>
   <si>
-    <t>2.1380174184672476</t>
+    <t>0.7132624129507372</t>
+  </si>
+  <si>
+    <t>DB2022101914</t>
+  </si>
+  <si>
+    <t>8.355638674120431</t>
+  </si>
+  <si>
+    <t>DB2022101915</t>
+  </si>
+  <si>
+    <t>0.7127484205971433</t>
+  </si>
+  <si>
+    <t>DB2022101916</t>
+  </si>
+  <si>
+    <t>0.7235723435489619</t>
+  </si>
+  <si>
+    <t>DB2022101917</t>
+  </si>
+  <si>
+    <t>0.710277270521369</t>
+  </si>
+  <si>
+    <t>DB2022101918</t>
+  </si>
+  <si>
+    <t>0.6867343547997963</t>
+  </si>
+  <si>
+    <t>DB2022101920</t>
+  </si>
+  <si>
+    <t>0.7179059862326688</t>
+  </si>
+  <si>
+    <t>DB2022101921</t>
+  </si>
+  <si>
+    <t>0.7360351301792927</t>
+  </si>
+  <si>
+    <t>DB2022101922</t>
+  </si>
+  <si>
+    <t>0.7381993547527205</t>
+  </si>
+  <si>
+    <t>DB2022101923</t>
+  </si>
+  <si>
+    <t>0.6952986970062914</t>
+  </si>
+  <si>
+    <t>DB2022101925</t>
+  </si>
+  <si>
+    <t>0.7132182033463416</t>
   </si>
   <si>
     <t>DB2022101927</t>
   </si>
   <si>
-    <t>2.995428320510645</t>
+    <t>0.9643560866458759</t>
+  </si>
+  <si>
+    <t>DB2022101928</t>
+  </si>
+  <si>
+    <t>0.6607239559095405</t>
+  </si>
+  <si>
+    <t>DB2022101934</t>
+  </si>
+  <si>
+    <t>0.7421033417472497</t>
   </si>
   <si>
     <t>DB2022101935</t>
   </si>
   <si>
-    <t>2.1656362759420302</t>
+    <t>0.743619793607904</t>
   </si>
   <si>
     <t>DB2022101936</t>
   </si>
   <si>
-    <t>2.6107075835296216</t>
+    <t>0.8315147841223064</t>
+  </si>
+  <si>
+    <t>DB2022101940</t>
+  </si>
+  <si>
+    <t>0.6767159260555421</t>
+  </si>
+  <si>
+    <t>DB2022101941</t>
+  </si>
+  <si>
+    <t>0.7700262681992535</t>
   </si>
   <si>
     <t>DB2022101944</t>
   </si>
   <si>
-    <t>2.2902438091853554</t>
+    <t>0.7023605842569414</t>
+  </si>
+  <si>
+    <t>DB2022101946</t>
+  </si>
+  <si>
+    <t>0.8796584697465054</t>
+  </si>
+  <si>
+    <t>DB2022101949</t>
+  </si>
+  <si>
+    <t>0.6934660507830895</t>
+  </si>
+  <si>
+    <t>DB2022101950</t>
+  </si>
+  <si>
+    <t>5.149071790335137</t>
   </si>
   <si>
     <t>DB2022101952</t>
   </si>
   <si>
-    <t>5.598344757427372</t>
+    <t>1.5692790628839188</t>
   </si>
   <si>
     <t>DB2022101953</t>
   </si>
   <si>
-    <t>4.009490828173582</t>
+    <t>1.1755815527408</t>
+  </si>
+  <si>
+    <t>DB2022101955</t>
+  </si>
+  <si>
+    <t>2.994297551549976</t>
   </si>
   <si>
     <t>DB2022101956</t>
   </si>
   <si>
-    <t>2.307185569072393</t>
+    <t>0.7167233763709163</t>
   </si>
   <si>
     <t>DB2022101957</t>
   </si>
   <si>
-    <t>2.013822104212254</t>
+    <t>0.6881108974341651</t>
+  </si>
+  <si>
+    <t>DB2022101958</t>
+  </si>
+  <si>
+    <t>0.8688726787161603</t>
+  </si>
+  <si>
+    <t>DB2022101959</t>
+  </si>
+  <si>
+    <t>0.9948312966535298</t>
+  </si>
+  <si>
+    <t>DB2022101960</t>
+  </si>
+  <si>
+    <t>0.7493200617714854</t>
+  </si>
+  <si>
+    <t>DB2022101963</t>
+  </si>
+  <si>
+    <t>0.9800315858995162</t>
+  </si>
+  <si>
+    <t>DB2022102014</t>
+  </si>
+  <si>
+    <t>1.034523722098603</t>
+  </si>
+  <si>
+    <t>DB2022103718</t>
+  </si>
+  <si>
+    <t>0.6432770623202355</t>
+  </si>
+  <si>
+    <t>DB2022104187</t>
+  </si>
+  <si>
+    <t>0.707224434910166</t>
   </si>
   <si>
     <t>DB2022104334</t>
   </si>
   <si>
-    <t>2.230862301812274</t>
+    <t>0.9962972039734662</t>
+  </si>
+  <si>
+    <t>DB2022104384</t>
+  </si>
+  <si>
+    <t>11.649802772788282</t>
   </si>
   <si>
     <t>DB2022104482</t>
   </si>
   <si>
-    <t>2.721763303110807</t>
+    <t>0.5945953490361481</t>
+  </si>
+  <si>
+    <t>DB2022104682</t>
+  </si>
+  <si>
+    <t>0.7067307735101078</t>
   </si>
   <si>
     <t>DB2023100484</t>
   </si>
   <si>
-    <t>2.2943272613825023</t>
+    <t>0.7747552206310404</t>
   </si>
   <si>
     <t>DB2023100485</t>
   </si>
   <si>
-    <t>2.307044416484233</t>
+    <t>0.7599097922073355</t>
+  </si>
+  <si>
+    <t>DB2023100486</t>
+  </si>
+  <si>
+    <t>0.7214021248294191</t>
   </si>
   <si>
     <t>DB2023100487</t>
   </si>
   <si>
-    <t>2.098213469064096</t>
+    <t>0.6916251208415616</t>
   </si>
   <si>
     <t>DB2023101253</t>
   </si>
   <si>
-    <t>2.31581649227529</t>
+    <t>0.7571508747668464</t>
+  </si>
+  <si>
+    <t>DB2023101258</t>
+  </si>
+  <si>
+    <t>0.694196658035734</t>
+  </si>
+  <si>
+    <t>DB2023101260</t>
+  </si>
+  <si>
+    <t>0.6741427808646876</t>
+  </si>
+  <si>
+    <t>DB2023101265</t>
+  </si>
+  <si>
+    <t>0.7141480661349505</t>
+  </si>
+  <si>
+    <t>DB2023101271</t>
+  </si>
+  <si>
+    <t>1.7189021694641107</t>
+  </si>
+  <si>
+    <t>DB2023101275</t>
+  </si>
+  <si>
+    <t>0.7141087006835619</t>
   </si>
   <si>
     <t>DB2023101277</t>
   </si>
   <si>
-    <t>2.1511464634761945</t>
+    <t>0.7074604873579647</t>
+  </si>
+  <si>
+    <t>DB2023101279</t>
+  </si>
+  <si>
+    <t>0.694863025854475</t>
+  </si>
+  <si>
+    <t>DB2023101281</t>
+  </si>
+  <si>
+    <t>0.6973965527722618</t>
+  </si>
+  <si>
+    <t>DB2023101285</t>
+  </si>
+  <si>
+    <t>0.6188604141280134</t>
+  </si>
+  <si>
+    <t>DB2023101287</t>
+  </si>
+  <si>
+    <t>0.7184613743631099</t>
   </si>
   <si>
     <t>DB2023101290</t>
   </si>
   <si>
-    <t>2.1793073375952186</t>
+    <t>0.6718765017942145</t>
   </si>
   <si>
     <t>DB2023102961</t>
   </si>
   <si>
-    <t>41.304393096660746</t>
+    <t>7.462395422951333</t>
+  </si>
+  <si>
+    <t>DB2023103111</t>
+  </si>
+  <si>
+    <t>0.32999471789924406</t>
   </si>
   <si>
     <t>DB2023103208</t>
   </si>
   <si>
-    <t>2.4219029090944932</t>
+    <t>0.6956459174827565</t>
+  </si>
+  <si>
+    <t>DB2023103209</t>
+  </si>
+  <si>
+    <t>0.8001541830582694</t>
   </si>
   <si>
     <t>DB2023103298</t>
   </si>
   <si>
-    <t>2.2541039502018663</t>
+    <t>0.7461883481306079</t>
+  </si>
+  <si>
+    <t>DB2023103409</t>
+  </si>
+  <si>
+    <t>0.7676854861709218</t>
+  </si>
+  <si>
+    <t>DB2023103844</t>
+  </si>
+  <si>
+    <t>2.181395523295233</t>
+  </si>
+  <si>
+    <t>DB2023104257</t>
+  </si>
+  <si>
+    <t>2.9208816205940256</t>
   </si>
   <si>
     <t>DB2023104352</t>
   </si>
   <si>
-    <t>2.5293684749568706</t>
+    <t>0.7336403589479786</t>
+  </si>
+  <si>
+    <t>DB2023104411</t>
+  </si>
+  <si>
+    <t>0.7011320311582386</t>
   </si>
   <si>
     <t>DB2023104412</t>
   </si>
   <si>
-    <t>2.2471178495159365</t>
+    <t>0.7329224259977964</t>
+  </si>
+  <si>
+    <t>DB2023104414</t>
+  </si>
+  <si>
+    <t>0.048428946934626745</t>
+  </si>
+  <si>
+    <t>DB2024103301</t>
+  </si>
+  <si>
+    <t>0.7057353249765177</t>
   </si>
 </sst>
 </file>
@@ -238,18 +559,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -264,9 +579,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -569,16 +883,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
@@ -586,7 +900,7 @@
     <col min="7" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -621,38 +935,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
-        <v>7.072319997678278E-2</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2">
+        <v>3.5060473999692481</v>
+      </c>
+      <c r="D2">
         <f>RANK(C2, C2:C50,1)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>3.1675885327754592</v>
-      </c>
-      <c r="F2" s="1">
-        <v>138</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="E2">
+        <v>2.2431093771754171</v>
+      </c>
+      <c r="F2">
+        <v>432</v>
+      </c>
+      <c r="G2">
         <f>RANK(F2, F2:F50)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="1">
-        <v>437.12721752301343</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="H2">
+        <v>969.02325093978016</v>
+      </c>
+      <c r="I2">
         <f>RANK(H2, H2:H50)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -664,28 +978,28 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>60.851560399907612</v>
+        <v>339.7992719998656</v>
       </c>
       <c r="D3">
         <f>RANK(C3, C2:C50,1)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1.0681084830064369</v>
+        <v>1.0682885161318969</v>
       </c>
       <c r="F3">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="G3">
         <f>RANK(F3, F2:F50)</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>65.154617463392654</v>
+        <v>210.45283767798361</v>
       </c>
       <c r="I3">
         <f>RANK(H3, H2:H50)</f>
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -699,28 +1013,28 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>63.469672499973967</v>
+        <v>2570.3059133997958</v>
       </c>
       <c r="D4">
         <f>RANK(C4, C2:C50,1)</f>
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E4">
-        <v>1.065500424800818</v>
+        <v>1.0096679397897621</v>
       </c>
       <c r="F4">
-        <v>97</v>
+        <v>335</v>
       </c>
       <c r="G4">
         <f>RANK(F4, F2:F50)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>103.35354120567931</v>
+        <v>338.23875982957031</v>
       </c>
       <c r="I4">
         <f>RANK(H4, H2:H50)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -734,28 +1048,28 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>55.225424299995211</v>
+        <v>341.15107049974898</v>
       </c>
       <c r="D5">
         <f>RANK(C5, C2:C50,1)</f>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>1.0744833592488261</v>
+        <v>1.068038054517173</v>
       </c>
       <c r="F5">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="G5">
         <f>RANK(F5, F2:F50)</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>78.437285225164274</v>
+        <v>194.38292592212559</v>
       </c>
       <c r="I5">
         <f>RANK(H5, H2:H50)</f>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -769,28 +1083,28 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>77.372522099944035</v>
+        <v>419.75774750007258</v>
       </c>
       <c r="D6">
         <f>RANK(C6, C2:C50,1)</f>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>1.0544356351427699</v>
+        <v>1.0560816081112701</v>
       </c>
       <c r="F6">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="G6">
         <f>RANK(F6, F2:F50)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>76.973801365422233</v>
+        <v>335.83395137938402</v>
       </c>
       <c r="I6">
         <f>RANK(H6, H2:H50)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -804,28 +1118,28 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>55.938824999891949</v>
+        <v>341.55481179984048</v>
       </c>
       <c r="D7">
         <f>RANK(C7, C2:C50,1)</f>
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>1.07360956995934</v>
+        <v>1.067963605856397</v>
       </c>
       <c r="F7">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="G7">
         <f>RANK(F7, F2:F50)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>73.005450757235138</v>
+        <v>207.184939536141</v>
       </c>
       <c r="I7">
         <f>RANK(H7, H2:H50)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -839,28 +1153,28 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>67.435107300014351</v>
+        <v>378.33335429999721</v>
       </c>
       <c r="D8">
         <f>RANK(C8, C2:C50,1)</f>
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>1.06191034579341</v>
+        <v>1.061804274259019</v>
       </c>
       <c r="F8">
-        <v>105</v>
+        <v>295</v>
       </c>
       <c r="G8">
         <f>RANK(F8, F2:F50)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H8">
-        <v>111.5005863083081</v>
+        <v>313.23226090641049</v>
       </c>
       <c r="I8">
         <f>RANK(H8, H2:H50)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -874,63 +1188,63 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>59.157462900078833</v>
+        <v>691.71001000024262</v>
       </c>
       <c r="D9">
         <f>RANK(C9, C2:C50,1)</f>
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E9">
-        <v>1.0699099228033599</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f>RANK(F9, F2:F50)</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H9">
-        <v>28.88756791569071</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f>RANK(H9, H2:H50)</f>
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>144.60638250002009</v>
+        <v>332.62120940002211</v>
       </c>
       <c r="D10">
         <f>RANK(C10, C2:C50,1)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1.029971783712827</v>
+        <v>1.0696500457402649</v>
       </c>
       <c r="F10">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <f>RANK(F10, F2:F50)</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="H10">
-        <v>37.078984213661791</v>
+        <v>82.363053522000428</v>
       </c>
       <c r="I10">
         <f>RANK(H10, H2:H50)</f>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -938,34 +1252,34 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>103.5659626999513</v>
+        <v>340.12205510023341</v>
       </c>
       <c r="D11">
         <f>RANK(C11, C2:C50,1)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>1.0412992192469319</v>
+        <v>1.068228543002625</v>
       </c>
       <c r="F11">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="G11">
         <f>RANK(F11, F2:F50)</f>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>121.832008651891</v>
+        <v>190.14468065446721</v>
       </c>
       <c r="I11">
         <f>RANK(H11, H2:H50)</f>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -973,34 +1287,34 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>59.595072000018263</v>
+        <v>315.06721830015158</v>
       </c>
       <c r="D12">
         <f>RANK(C12, C2:C50,1)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>1.069435499680883</v>
+        <v>1.0732207000849869</v>
       </c>
       <c r="F12">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="G12">
         <f>RANK(F12, F2:F50)</f>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H12">
-        <v>49.194032985320597</v>
+        <v>111.61495280883859</v>
       </c>
       <c r="I12">
         <f>RANK(H12, H2:H50)</f>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -1008,104 +1322,104 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>52.017434100027458</v>
+        <v>321.90025419997261</v>
       </c>
       <c r="D13">
         <f>RANK(C13, C2:C50,1)</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>1.078684156488231</v>
+        <v>1.0717880296716551</v>
       </c>
       <c r="F13">
-        <v>33</v>
+        <v>192</v>
       </c>
       <c r="G13">
         <f>RANK(F13, F2:F50)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H13">
-        <v>35.596577164111629</v>
+        <v>205.78330169695769</v>
       </c>
       <c r="I13">
         <f>RANK(H13, H2:H50)</f>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1">
-        <v>57.623626500091632</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>3770.9574545998912</v>
+      </c>
+      <c r="D14">
         <f>RANK(C14, C2:C50,1)</f>
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.0716253532641331</v>
-      </c>
-      <c r="F14" s="1">
-        <v>78</v>
-      </c>
-      <c r="G14" s="1">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>1.0066130126768771</v>
+      </c>
+      <c r="F14">
+        <v>174</v>
+      </c>
+      <c r="G14">
         <f>RANK(F14, F2:F50)</f>
-        <v>10</v>
-      </c>
-      <c r="H14" s="1">
-        <v>83.586777554602378</v>
-      </c>
-      <c r="I14" s="1">
+        <v>34</v>
+      </c>
+      <c r="H14">
+        <v>175.15066420577659</v>
+      </c>
+      <c r="I14">
         <f>RANK(H14, H2:H50)</f>
-        <v>10</v>
-      </c>
-      <c r="J14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>70.303699099986261</v>
+        <v>321.66828590012301</v>
       </c>
       <c r="D15">
         <f>RANK(C15, C2:C50,1)</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>1.0595496168095919</v>
+        <v>1.0718357440069139</v>
       </c>
       <c r="F15">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="G15">
         <f>RANK(F15, F2:F50)</f>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>77.347122027100212</v>
+        <v>121.1174390727812</v>
       </c>
       <c r="I15">
         <f>RANK(H15, H2:H50)</f>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -1113,34 +1427,34 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>59.262939299966092</v>
+        <v>326.55319710022007</v>
       </c>
       <c r="D16">
         <f>RANK(C16, C2:C50,1)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>1.069794979878897</v>
+        <v>1.0708441905872561</v>
       </c>
       <c r="F16">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="G16">
         <f>RANK(F16, F2:F50)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H16">
-        <v>82.374213450675072</v>
+        <v>223.8064358327365</v>
       </c>
       <c r="I16">
         <f>RANK(H16, H2:H50)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -1148,34 +1462,34 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>59.591425999988132</v>
+        <v>320.55303880015708</v>
       </c>
       <c r="D17">
         <f>RANK(C17, C2:C50,1)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17">
-        <v>1.06943942574333</v>
+        <v>1.0720660333047261</v>
       </c>
       <c r="F17">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="G17">
         <f>RANK(F17, F2:F50)</f>
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>98.388427168386357</v>
+        <v>151.16131069596639</v>
       </c>
       <c r="I17">
         <f>RANK(H17, H2:H50)</f>
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -1183,34 +1497,34 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>54.197280199943627</v>
+        <v>309.92795829993702</v>
       </c>
       <c r="D18">
         <f>RANK(C18, C2:C50,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>1.075779874948634</v>
+        <v>1.0743365853511879</v>
       </c>
       <c r="F18">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="G18">
         <f>RANK(F18, F2:F50)</f>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>91.441289370633896</v>
+        <v>198.75226828996981</v>
       </c>
       <c r="I18">
         <f>RANK(H18, H2:H50)</f>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -1218,34 +1532,34 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>59.818010499893717</v>
+        <v>323.99593090003327</v>
       </c>
       <c r="D19">
         <f>RANK(C19, C2:C50,1)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>1.0691962788518681</v>
+        <v>1.071359825243501</v>
       </c>
       <c r="F19">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="G19">
         <f>RANK(F19, F2:F50)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H19">
-        <v>98.366057654371843</v>
+        <v>301.0521108934239</v>
       </c>
       <c r="I19">
         <f>RANK(H19, H2:H50)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1253,34 +1567,34 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20">
-        <v>55.564550200004312</v>
+        <v>332.17773879974271</v>
       </c>
       <c r="D20">
         <f>RANK(C20, C2:C50,1)</f>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>1.074065411666226</v>
+        <v>1.0697359496761289</v>
       </c>
       <c r="F20">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="G20">
         <f>RANK(F20, F2:F50)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H20">
-        <v>40.814485643316608</v>
+        <v>308.08395350672498</v>
       </c>
       <c r="I20">
         <f>RANK(H20, H2:H50)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1288,34 +1602,34 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21">
-        <v>56.291951299943321</v>
+        <v>333.1544683002503</v>
       </c>
       <c r="D21">
         <f>RANK(C21, C2:C50,1)</f>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1.073184612519186</v>
+        <v>1.0695470295029681</v>
       </c>
       <c r="F21">
-        <v>37</v>
+        <v>234</v>
       </c>
       <c r="G21">
         <f>RANK(F21, F2:F50)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H21">
-        <v>39.707830663209883</v>
+        <v>250.2740049036945</v>
       </c>
       <c r="I21">
         <f>RANK(H21, H2:H50)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1323,34 +1637,34 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22">
-        <v>1066.9008655000471</v>
+        <v>313.79310510042711</v>
       </c>
       <c r="D22">
         <f>RANK(C22, C2:C50,1)</f>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>1.004185560236504</v>
+        <v>1.0734942053113401</v>
       </c>
       <c r="F22">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="G22">
         <f>RANK(F22, F2:F50)</f>
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H22">
-        <v>60.251133614190209</v>
+        <v>181.4205206976165</v>
       </c>
       <c r="I22">
         <f>RANK(H22, H2:H50)</f>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1358,34 +1672,34 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23">
-        <v>62.558244199910398</v>
+        <v>321.88030210010771</v>
       </c>
       <c r="D23">
         <f>RANK(C23, C2:C50,1)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23">
-        <v>1.0663853383994879</v>
+        <v>1.0717921311884979</v>
       </c>
       <c r="F23">
-        <v>88</v>
+        <v>276</v>
       </c>
       <c r="G23">
         <f>RANK(F23, F2:F50)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H23">
-        <v>93.84190977915496</v>
+        <v>295.81462820802551</v>
       </c>
       <c r="I23">
         <f>RANK(H23, H2:H50)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1393,34 +1707,34 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24">
-        <v>58.223963000000367</v>
+        <v>435.22056370021892</v>
       </c>
       <c r="D24">
         <f>RANK(C24, C2:C50,1)</f>
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E24">
-        <v>1.0709439882828109</v>
+        <v>1.0542083533797371</v>
       </c>
       <c r="F24">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="G24">
         <f>RANK(F24, F2:F50)</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>28.915487683635909</v>
+        <v>185.54067019483361</v>
       </c>
       <c r="I24">
         <f>RANK(H24, H2:H50)</f>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1428,34 +1742,34 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25">
-        <v>65.334101599913993</v>
+        <v>298.18928560025228</v>
       </c>
       <c r="D25">
         <f>RANK(C25, C2:C50,1)</f>
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>1.0637619021107161</v>
+        <v>1.0770179134200619</v>
       </c>
       <c r="F25">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="G25">
         <f>RANK(F25, F2:F50)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H25">
-        <v>82.973428364635836</v>
+        <v>220.78867225111259</v>
       </c>
       <c r="I25">
         <f>RANK(H25, H2:H50)</f>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1463,36 +1777,1891 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>58.043510599916772</v>
+        <v>334.91636459972511</v>
       </c>
       <c r="D26">
         <f>RANK(C26, C2:C50,1)</f>
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>1.0711474270156041</v>
+        <v>1.0692088228977661</v>
       </c>
       <c r="F26">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="G26">
         <f>RANK(F26, F2:F50)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H26">
-        <v>88.905236442295148</v>
+        <v>244.84882044358849</v>
       </c>
       <c r="I26">
         <f>RANK(H26, H2:H50)</f>
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>335.60074980012718</v>
+      </c>
+      <c r="D27">
+        <f>RANK(C27, C2:C50,1)</f>
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>1.0690783382474061</v>
+      </c>
+      <c r="F27">
+        <v>242</v>
+      </c>
+      <c r="G27">
+        <f>RANK(F27, F2:F50)</f>
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>258.71695785587218</v>
+      </c>
+      <c r="I27">
+        <f>RANK(H27, H2:H50)</f>
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>375.2683662001582</v>
+      </c>
+      <c r="D28">
+        <f>RANK(C28, C2:C50,1)</f>
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>1.06227453039562</v>
+      </c>
+      <c r="F28">
+        <v>308</v>
+      </c>
+      <c r="G28">
+        <f>RANK(F28, F2:F50)</f>
         <v>9</v>
       </c>
-      <c r="J26" t="s">
+      <c r="H28">
+        <v>327.18055536185079</v>
+      </c>
+      <c r="I28">
+        <f>RANK(H28, H2:H50)</f>
+        <v>9</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <v>305.4065722000887</v>
+      </c>
+      <c r="D29">
+        <f>RANK(C29, C2:C50,1)</f>
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>1.075346889915763</v>
+      </c>
+      <c r="F29">
+        <v>78</v>
+      </c>
+      <c r="G29">
+        <f>RANK(F29, F2:F50)</f>
+        <v>43</v>
+      </c>
+      <c r="H29">
+        <v>83.877057413429512</v>
+      </c>
+      <c r="I29">
+        <f>RANK(H29, H2:H50)</f>
+        <v>43</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
+        <v>347.51817419981671</v>
+      </c>
+      <c r="D30">
+        <f>RANK(C30, C2:C50,1)</f>
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>1.066882690461407</v>
+      </c>
+      <c r="F30">
+        <v>169</v>
+      </c>
+      <c r="G30">
+        <f>RANK(F30, F2:F50)</f>
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>180.3031746879777</v>
+      </c>
+      <c r="I30">
+        <f>RANK(H30, H2:H50)</f>
+        <v>35</v>
+      </c>
+      <c r="J30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>316.98018360034621</v>
+      </c>
+      <c r="D31">
+        <f>RANK(C31, C2:C50,1)</f>
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>1.072813867105413</v>
+      </c>
+      <c r="F31">
+        <v>73</v>
+      </c>
+      <c r="G31">
+        <f>RANK(F31, F2:F50)</f>
+        <v>46</v>
+      </c>
+      <c r="H31">
+        <v>78.315412298695165</v>
+      </c>
+      <c r="I31">
+        <f>RANK(H31, H2:H50)</f>
+        <v>46</v>
+      </c>
+      <c r="J31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32">
+        <v>396.99594410019199</v>
+      </c>
+      <c r="D32">
+        <f>RANK(C32, C2:C50,1)</f>
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>1.0590876709903889</v>
+      </c>
+      <c r="F32">
+        <v>244</v>
+      </c>
+      <c r="G32">
+        <f>RANK(F32, F2:F50)</f>
+        <v>17</v>
+      </c>
+      <c r="H32">
+        <v>258.41739172165478</v>
+      </c>
+      <c r="I32">
+        <f>RANK(H32, H2:H50)</f>
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>312.96601919992833</v>
+      </c>
+      <c r="D33">
+        <f>RANK(C33, C2:C50,1)</f>
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>1.0736728492125629</v>
+      </c>
+      <c r="F33">
+        <v>75</v>
+      </c>
+      <c r="G33">
+        <f>RANK(F33, F2:F50)</f>
+        <v>45</v>
+      </c>
+      <c r="H33">
+        <v>80.525463690942246</v>
+      </c>
+      <c r="I33">
+        <f>RANK(H33, H2:H50)</f>
+        <v>45</v>
+      </c>
+      <c r="J33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34">
+        <v>2323.8116689001331</v>
+      </c>
+      <c r="D34">
+        <f>RANK(C34, C2:C50,1)</f>
+        <v>46</v>
+      </c>
+      <c r="E34">
+        <v>1.010680936867846</v>
+      </c>
+      <c r="F34">
+        <v>221</v>
+      </c>
+      <c r="G34">
+        <f>RANK(F34, F2:F50)</f>
+        <v>21</v>
+      </c>
+      <c r="H34">
+        <v>223.36048704779401</v>
+      </c>
+      <c r="I34">
+        <f>RANK(H34, H2:H50)</f>
+        <v>23</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35">
+        <v>708.22648170010507</v>
+      </c>
+      <c r="D35">
+        <f>RANK(C35, C2:C50,1)</f>
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>1.03410555783973</v>
+      </c>
+      <c r="F35">
+        <v>112</v>
+      </c>
+      <c r="G35">
+        <f>RANK(F35, F2:F50)</f>
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>115.8198224780498</v>
+      </c>
+      <c r="I35">
+        <f>RANK(H35, H2:H50)</f>
+        <v>40</v>
+      </c>
+      <c r="J35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36">
+        <v>530.54807569987315</v>
+      </c>
+      <c r="D36">
+        <f>RANK(C36, C2:C50,1)</f>
+        <v>42</v>
+      </c>
+      <c r="E36">
+        <v>1.044953777625188</v>
+      </c>
+      <c r="F36">
+        <v>375</v>
+      </c>
+      <c r="G36">
+        <f>RANK(F36, F2:F50)</f>
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>391.85766660944552</v>
+      </c>
+      <c r="I36">
+        <f>RANK(H36, H2:H50)</f>
+        <v>4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37">
+        <v>1351.347169699889</v>
+      </c>
+      <c r="D37">
+        <f>RANK(C37, C2:C50,1)</f>
+        <v>45</v>
+      </c>
+      <c r="E37">
+        <v>1.018207864577277</v>
+      </c>
+      <c r="F37">
+        <v>378</v>
+      </c>
+      <c r="G37">
+        <f>RANK(F37, F2:F50)</f>
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>384.88257281021089</v>
+      </c>
+      <c r="I37">
+        <f>RANK(H37, H2:H50)</f>
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38">
+        <v>323.46221089992468</v>
+      </c>
+      <c r="D38">
+        <f>RANK(C38, C2:C50,1)</f>
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>1.071468392271882</v>
+      </c>
+      <c r="F38">
+        <v>165</v>
+      </c>
+      <c r="G38">
+        <f>RANK(F38, F2:F50)</f>
+        <v>37</v>
+      </c>
+      <c r="H38">
+        <v>176.79228472486059</v>
+      </c>
+      <c r="I38">
+        <f>RANK(H38, H2:H50)</f>
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39">
+        <v>310.54920150001999</v>
+      </c>
+      <c r="D39">
+        <f>RANK(C39, C2:C50,1)</f>
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>1.074199886794905</v>
+      </c>
+      <c r="F39">
+        <v>96</v>
+      </c>
+      <c r="G39">
+        <f>RANK(F39, F2:F50)</f>
+        <v>42</v>
+      </c>
+      <c r="H39">
+        <v>103.1231891323108</v>
+      </c>
+      <c r="I39">
+        <f>RANK(H39, H2:H50)</f>
+        <v>42</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40">
+        <v>392.12824209967221</v>
+      </c>
+      <c r="D40">
+        <f>RANK(C40, C2:C50,1)</f>
+        <v>34</v>
+      </c>
+      <c r="E40">
+        <v>1.0597729085278531</v>
+      </c>
+      <c r="F40">
+        <v>306</v>
+      </c>
+      <c r="G40">
+        <f>RANK(F40, F2:F50)</f>
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>324.29051000952302</v>
+      </c>
+      <c r="I40">
+        <f>RANK(H40, H2:H50)</f>
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41">
+        <v>448.97423650021659</v>
+      </c>
+      <c r="D41">
+        <f>RANK(C41, C2:C50,1)</f>
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>1.0526444031167299</v>
+      </c>
+      <c r="F41">
+        <v>263</v>
+      </c>
+      <c r="G41">
+        <f>RANK(F41, F2:F50)</f>
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>276.84547801970012</v>
+      </c>
+      <c r="I41">
+        <f>RANK(H41, H2:H50)</f>
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42">
+        <v>338.17332019995229</v>
+      </c>
+      <c r="D42">
+        <f>RANK(C42, C2:C50,1)</f>
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>1.0685922317941809</v>
+      </c>
+      <c r="F42">
+        <v>54</v>
+      </c>
+      <c r="G42">
+        <f>RANK(F42, F2:F50)</f>
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>57.703980516885792</v>
+      </c>
+      <c r="I42">
+        <f>RANK(H42, H2:H50)</f>
+        <v>47</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43">
+        <v>442.29502480014338</v>
+      </c>
+      <c r="D43">
+        <f>RANK(C43, C2:C50,1)</f>
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <v>1.0533924605423099</v>
+      </c>
+      <c r="F43">
+        <v>375</v>
+      </c>
+      <c r="G43">
+        <f>RANK(F43, F2:F50)</f>
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>395.02217270336621</v>
+      </c>
+      <c r="I43">
+        <f>RANK(H43, H2:H50)</f>
+        <v>3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44">
+        <v>466.88770229988592</v>
+      </c>
+      <c r="D44">
+        <f>RANK(C44, C2:C50,1)</f>
+        <v>41</v>
+      </c>
+      <c r="E44">
+        <v>1.0507379948807709</v>
+      </c>
+      <c r="F44">
+        <v>381</v>
+      </c>
+      <c r="G44">
+        <f>RANK(F44, F2:F50)</f>
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>400.33117604957368</v>
+      </c>
+      <c r="I44">
+        <f>RANK(H44, H2:H50)</f>
+        <v>2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45">
+        <v>290.31538199980417</v>
+      </c>
+      <c r="D45">
+        <f>RANK(C45, C2:C50,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>1.0789278391325809</v>
+      </c>
+      <c r="F45">
+        <v>197</v>
+      </c>
+      <c r="G45">
+        <f>RANK(F45, F2:F50)</f>
+        <v>25</v>
+      </c>
+      <c r="H45">
+        <v>212.54878430911839</v>
+      </c>
+      <c r="I45">
+        <f>RANK(H45, H2:H50)</f>
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46">
+        <v>319.17527299975342</v>
+      </c>
+      <c r="D46">
+        <f>RANK(C46, C2:C50,1)</f>
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>1.0723525821334901</v>
+      </c>
+      <c r="F46">
+        <v>220</v>
+      </c>
+      <c r="G46">
+        <f>RANK(F46, F2:F50)</f>
+        <v>22</v>
+      </c>
+      <c r="H46">
+        <v>235.9175680693678</v>
+      </c>
+      <c r="I46">
+        <f>RANK(H46, H2:H50)</f>
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47">
+        <v>449.63581060022989</v>
+      </c>
+      <c r="D47">
+        <f>RANK(C47, C2:C50,1)</f>
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>1.0525714489763329</v>
+      </c>
+      <c r="F47">
+        <v>321</v>
+      </c>
+      <c r="G47">
+        <f>RANK(F47, F2:F50)</f>
+        <v>7</v>
+      </c>
+      <c r="H47">
+        <v>337.87543512140297</v>
+      </c>
+      <c r="I47">
+        <f>RANK(H47, H2:H50)</f>
+        <v>7</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48">
+        <v>5257.6364684999862</v>
+      </c>
+      <c r="D48">
+        <f>RANK(C48, C2:C50,1)</f>
+        <v>49</v>
+      </c>
+      <c r="E48">
+        <v>1.0047532683538389</v>
+      </c>
+      <c r="F48">
+        <v>254</v>
+      </c>
+      <c r="G48">
+        <f>RANK(F48, F2:F50)</f>
+        <v>16</v>
+      </c>
+      <c r="H48">
+        <v>255.20733016187509</v>
+      </c>
+      <c r="I48">
+        <f>RANK(H48, H2:H50)</f>
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49">
+        <v>268.3449885001537</v>
+      </c>
+      <c r="D49">
+        <f>RANK(C49, C2:C50,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>RANK(F49, F2:F50)</f>
+        <v>48</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>RANK(H49, H2:H50)</f>
+        <v>48</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50">
+        <v>318.9524801996813</v>
+      </c>
+      <c r="D50">
+        <f>RANK(C50, C2:C50,1)</f>
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>1.0723991334278919</v>
+      </c>
+      <c r="F50">
+        <v>182</v>
+      </c>
+      <c r="G50">
+        <f>RANK(F50, F2:F50)</f>
+        <v>30</v>
+      </c>
+      <c r="H50">
+        <v>195.17664228387639</v>
+      </c>
+      <c r="I50">
+        <f>RANK(H50, H2:H50)</f>
+        <v>30</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51">
+        <v>349.65238310000859</v>
+      </c>
+      <c r="D51" t="e">
+        <f>RANK(C51, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E51">
+        <v>1.066504168432868</v>
+      </c>
+      <c r="F51">
+        <v>211</v>
+      </c>
+      <c r="G51" t="e">
+        <f>RANK(F51, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H51">
+        <v>225.03237953933521</v>
+      </c>
+      <c r="I51" t="e">
+        <f>RANK(H51, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52">
+        <v>342.95253869978478</v>
+      </c>
+      <c r="D52" t="e">
+        <f>RANK(C52, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E52">
+        <v>1.067707125439334</v>
+      </c>
+      <c r="F52">
+        <v>261</v>
+      </c>
+      <c r="G52" t="e">
+        <f>RANK(F52, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H52">
+        <v>278.67155973966618</v>
+      </c>
+      <c r="I52" t="e">
+        <f>RANK(H52, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53">
+        <v>325.5737624001631</v>
+      </c>
+      <c r="D53" t="e">
+        <f>RANK(C53, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E53">
+        <v>1.071040794131048</v>
+      </c>
+      <c r="F53">
+        <v>230</v>
+      </c>
+      <c r="G53" t="e">
+        <f>RANK(F53, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H53">
+        <v>246.33938265014089</v>
+      </c>
+      <c r="I53" t="e">
+        <f>RANK(H53, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54">
+        <v>312.13519480012468</v>
+      </c>
+      <c r="D54" t="e">
+        <f>RANK(C54, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E54">
+        <v>1.0738531792150989</v>
+      </c>
+      <c r="F54">
+        <v>240</v>
+      </c>
+      <c r="G54" t="e">
+        <f>RANK(F54, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H54">
+        <v>257.72476301162379</v>
+      </c>
+      <c r="I54" t="e">
+        <f>RANK(H54, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55">
+        <v>341.70742020021862</v>
+      </c>
+      <c r="D55" t="e">
+        <f>RANK(C55, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E55">
+        <v>1.067935507833933</v>
+      </c>
+      <c r="F55">
+        <v>281</v>
+      </c>
+      <c r="G55">
+        <f>RANK(F55, F2:F50)</f>
+        <v>13</v>
+      </c>
+      <c r="H55">
+        <v>300.08987770133513</v>
+      </c>
+      <c r="I55" t="e">
+        <f>RANK(H55, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56">
+        <v>313.29574730010057</v>
+      </c>
+      <c r="D56" t="e">
+        <f>RANK(C56, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E56">
+        <v>1.0736015263482299</v>
+      </c>
+      <c r="F56">
+        <v>238</v>
+      </c>
+      <c r="G56" t="e">
+        <f>RANK(F56, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H56">
+        <v>255.51716327087871</v>
+      </c>
+      <c r="I56" t="e">
+        <f>RANK(H56, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57">
+        <v>304.24529400010209</v>
+      </c>
+      <c r="D57" t="e">
+        <f>RANK(C57, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E57">
+        <v>1.0756108369855359</v>
+      </c>
+      <c r="F57">
+        <v>196</v>
+      </c>
+      <c r="G57" t="e">
+        <f>RANK(F57, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H57">
+        <v>210.8197240491651</v>
+      </c>
+      <c r="I57" t="e">
+        <f>RANK(H57, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58">
+        <v>322.29995560012321</v>
+      </c>
+      <c r="D58" t="e">
+        <f>RANK(C58, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E58">
+        <v>1.071705962626414</v>
+      </c>
+      <c r="F58">
+        <v>258</v>
+      </c>
+      <c r="G58" t="e">
+        <f>RANK(F58, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H58">
+        <v>276.50013835761479</v>
+      </c>
+      <c r="I58" t="e">
+        <f>RANK(H58, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59">
+        <v>775.75242330005858</v>
+      </c>
+      <c r="D59" t="e">
+        <f>RANK(C59, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E59">
+        <v>1.03124096443552</v>
+      </c>
+      <c r="F59">
+        <v>325</v>
+      </c>
+      <c r="G59" t="e">
+        <f>RANK(F59, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H59">
+        <v>335.15331344154379</v>
+      </c>
+      <c r="I59" t="e">
+        <f>RANK(H59, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60">
+        <v>322.28218969997403</v>
+      </c>
+      <c r="D60" t="e">
+        <f>RANK(C60, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E60">
+        <v>1.0717096063428431</v>
+      </c>
+      <c r="F60">
+        <v>179</v>
+      </c>
+      <c r="G60" t="e">
+        <f>RANK(F60, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H60">
+        <v>191.83601953536891</v>
+      </c>
+      <c r="I60" t="e">
+        <f>RANK(H60, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61">
+        <v>319.28180510010128</v>
+      </c>
+      <c r="D61" t="e">
+        <f>RANK(C61, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E61">
+        <v>1.0723303440525029</v>
+      </c>
+      <c r="F61">
+        <v>164</v>
+      </c>
+      <c r="G61" t="e">
+        <f>RANK(F61, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H61">
+        <v>175.86217642461051</v>
+      </c>
+      <c r="I61" t="e">
+        <f>RANK(H61, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62">
+        <v>313.59648369998467</v>
+      </c>
+      <c r="D62" t="e">
+        <f>RANK(C62, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E62">
+        <v>1.073536595221227</v>
+      </c>
+      <c r="F62">
+        <v>210</v>
+      </c>
+      <c r="G62" t="e">
+        <f>RANK(F62, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H62">
+        <v>225.44268499645759</v>
+      </c>
+      <c r="I62" t="e">
+        <f>RANK(H62, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63">
+        <v>314.73988189965172</v>
+      </c>
+      <c r="D63" t="e">
+        <f>RANK(C63, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E63">
+        <v>1.0732907722053779</v>
+      </c>
+      <c r="F63">
+        <v>129</v>
+      </c>
+      <c r="G63" t="e">
+        <f>RANK(F63, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H63">
+        <v>138.45450961449379</v>
+      </c>
+      <c r="I63" t="e">
+        <f>RANK(H63, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64">
+        <v>279.29597999981343</v>
+      </c>
+      <c r="D64" t="e">
+        <f>RANK(C64, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E64">
+        <v>1.0817660018552471</v>
+      </c>
+      <c r="F64">
+        <v>96</v>
+      </c>
+      <c r="G64">
+        <f>RANK(F64, F2:F50)</f>
+        <v>42</v>
+      </c>
+      <c r="H64">
+        <v>103.8495361781037</v>
+      </c>
+      <c r="I64" t="e">
+        <f>RANK(H64, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65">
+        <v>324.24658139993699</v>
+      </c>
+      <c r="D65" t="e">
+        <f>RANK(C65, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E65">
+        <v>1.0713089529973061</v>
+      </c>
+      <c r="F65">
+        <v>86</v>
+      </c>
+      <c r="G65" t="e">
+        <f>RANK(F65, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H65">
+        <v>92.132569957768325</v>
+      </c>
+      <c r="I65" t="e">
+        <f>RANK(H65, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66">
+        <v>303.22250660008291</v>
+      </c>
+      <c r="D66" t="e">
+        <f>RANK(C66, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E66">
+        <v>1.0758448467120161</v>
+      </c>
+      <c r="F66">
+        <v>118</v>
+      </c>
+      <c r="G66" t="e">
+        <f>RANK(F66, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H66">
+        <v>126.9496919120179</v>
+      </c>
+      <c r="I66" t="e">
+        <f>RANK(H66, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67">
+        <v>3367.8306047996589</v>
+      </c>
+      <c r="D67" t="e">
+        <f>RANK(C67, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E67">
+        <v>1.007397879619345</v>
+      </c>
+      <c r="F67">
+        <v>175</v>
+      </c>
+      <c r="G67" t="e">
+        <f>RANK(F67, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H67">
+        <v>176.29462893338541</v>
+      </c>
+      <c r="I67" t="e">
+        <f>RANK(H67, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68">
+        <v>148.9288958000252</v>
+      </c>
+      <c r="D68" t="e">
+        <f>RANK(C68, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f>RANK(F68, F2:F50)</f>
+        <v>48</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f>RANK(H68, H2:H50)</f>
+        <v>48</v>
+      </c>
+      <c r="J68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69">
+        <v>313.94980810006382</v>
+      </c>
+      <c r="D69" t="e">
+        <f>RANK(C69, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E69">
+        <v>1.07346045653351</v>
+      </c>
+      <c r="F69">
+        <v>243</v>
+      </c>
+      <c r="G69" t="e">
+        <f>RANK(F69, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H69">
+        <v>260.85089093764299</v>
+      </c>
+      <c r="I69" t="e">
+        <f>RANK(H69, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70">
+        <v>361.11511030011019</v>
+      </c>
+      <c r="D70" t="e">
+        <f>RANK(C70, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E70">
+        <v>1.0645424176681191</v>
+      </c>
+      <c r="F70">
+        <v>306</v>
+      </c>
+      <c r="G70">
+        <f>RANK(F70, F2:F50)</f>
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>325.74997980644429</v>
+      </c>
+      <c r="I70" t="e">
+        <f>RANK(H70, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71">
+        <v>336.75995619986497</v>
+      </c>
+      <c r="D71" t="e">
+        <f>RANK(C71, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E71">
+        <v>1.068858445605811</v>
+      </c>
+      <c r="F71">
+        <v>120</v>
+      </c>
+      <c r="G71" t="e">
+        <f>RANK(F71, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H71">
+        <v>128.26301347269731</v>
+      </c>
+      <c r="I71" t="e">
+        <f>RANK(H71, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72">
+        <v>346.46176310024748</v>
+      </c>
+      <c r="D72" t="e">
+        <f>RANK(C72, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E72">
+        <v>1.067071656881396</v>
+      </c>
+      <c r="F72">
+        <v>195</v>
+      </c>
+      <c r="G72" t="e">
+        <f>RANK(F72, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H72">
+        <v>208.07897309187231</v>
+      </c>
+      <c r="I72" t="e">
+        <f>RANK(H72, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73">
+        <v>984.47886880016449</v>
+      </c>
+      <c r="D73" t="e">
+        <f>RANK(C73, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E73">
+        <v>1.0248024758476491</v>
+      </c>
+      <c r="F73">
+        <v>344</v>
+      </c>
+      <c r="G73" t="e">
+        <f>RANK(F73, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H73">
+        <v>352.53205169159128</v>
+      </c>
+      <c r="I73" t="e">
+        <f>RANK(H73, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74">
+        <v>1318.2140529003079</v>
+      </c>
+      <c r="D74" t="e">
+        <f>RANK(C74, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E74">
+        <v>1.0186558245854509</v>
+      </c>
+      <c r="F74">
+        <v>310</v>
+      </c>
+      <c r="G74" t="e">
+        <f>RANK(F74, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H74">
+        <v>315.78330562148972</v>
+      </c>
+      <c r="I74" t="e">
+        <f>RANK(H74, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75">
+        <v>331.09696199990867</v>
+      </c>
+      <c r="D75" t="e">
+        <f>RANK(C75, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E75">
+        <v>1.0699461972075239</v>
+      </c>
+      <c r="F75">
+        <v>259</v>
+      </c>
+      <c r="G75" t="e">
+        <f>RANK(F75, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H75">
+        <v>277.11606507674878</v>
+      </c>
+      <c r="I75" t="e">
+        <f>RANK(H75, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76">
+        <v>316.42572910002491</v>
+      </c>
+      <c r="D76" t="e">
+        <f>RANK(C76, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E76">
+        <v>1.0729313165878711</v>
+      </c>
+      <c r="F76">
+        <v>186</v>
+      </c>
+      <c r="G76" t="e">
+        <f>RANK(F76, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H76">
+        <v>199.56522488534401</v>
+      </c>
+      <c r="I76" t="e">
+        <f>RANK(H76, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77">
+        <v>330.77295389999199</v>
+      </c>
+      <c r="D77" t="e">
+        <f>RANK(C77, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E77">
+        <v>1.0700094754681471</v>
+      </c>
+      <c r="F77">
+        <v>267</v>
+      </c>
+      <c r="G77" t="e">
+        <f>RANK(F77, F2:F50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H77">
+        <v>285.69252994999522</v>
+      </c>
+      <c r="I77" t="e">
+        <f>RANK(H77, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78">
+        <v>21.856318300022391</v>
+      </c>
+      <c r="D78" t="e">
+        <f>RANK(C78, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f>RANK(F78, F2:F50)</f>
+        <v>48</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f>RANK(H78, H2:H50)</f>
+        <v>48</v>
+      </c>
+      <c r="J78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79">
+        <v>318.50322739988769</v>
+      </c>
+      <c r="D79" t="e">
+        <f>RANK(C79, C2:C50,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E79">
+        <v>1.0724931850956541</v>
+      </c>
+      <c r="F79">
+        <v>182</v>
+      </c>
+      <c r="G79">
+        <f>RANK(F79, F2:F50)</f>
+        <v>30</v>
+      </c>
+      <c r="H79">
+        <v>195.193759687409</v>
+      </c>
+      <c r="I79" t="e">
+        <f>RANK(H79, H2:H50)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J79" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Reversi/time.xlsx
+++ b/Reversi/time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_experimental_course\Reversi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\25SPRING\Python_experimental_course\Reversi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB74597-19BC-4886-B4BC-D89748FB33C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C7AC53-FD07-4429-B0B9-648E50736BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>DB2021100944</t>
   </si>
   <si>
-    <t>0.00776865440705184</t>
+    <t>0.008681034321129854</t>
   </si>
   <si>
     <t/>
@@ -77,43 +77,43 @@
     <t>DB2021101011</t>
   </si>
   <si>
-    <t>0.7529228247050844</t>
+    <t>0.779490115480601</t>
   </si>
   <si>
     <t>DB2021101121</t>
   </si>
   <si>
-    <t>5.695250543897345</t>
+    <t>6.297503640635918</t>
   </si>
   <si>
     <t>DB2021101273</t>
   </si>
   <si>
-    <t>0.755918122308208</t>
+    <t>0.7124474074461427</t>
   </si>
   <si>
     <t>DB2021160887</t>
   </si>
   <si>
-    <t>0.9300937788345915</t>
+    <t>0.8285275334007901</t>
   </si>
   <si>
     <t>DB2022100280</t>
   </si>
   <si>
-    <t>0.7568127270503721</t>
+    <t>0.7208220044687743</t>
   </si>
   <si>
     <t>DB2022100281</t>
   </si>
   <si>
-    <t>0.8383061450461731</t>
+    <t>0.7925624297209046</t>
   </si>
   <si>
     <t>DB2022100491</t>
   </si>
   <si>
-    <t>1.5326820788667577</t>
+    <t>1.5521468071234494</t>
   </si>
   <si>
     <t xml:space="preserve"> Slow Player </t>
@@ -122,428 +122,428 @@
     <t>DB2022100492</t>
   </si>
   <si>
-    <t>0.7370177665901092</t>
+    <t>0.7011719808411127</t>
   </si>
   <si>
     <t>DB2022100604</t>
   </si>
   <si>
-    <t>0.7536380433171364</t>
+    <t>0.7148397090348974</t>
   </si>
   <si>
     <t>DB2022100606</t>
   </si>
   <si>
-    <t>0.6981218605277572</t>
+    <t>0.7075003477773602</t>
   </si>
   <si>
     <t>DB2022101143</t>
   </si>
   <si>
-    <t>0.7132624129507372</t>
+    <t>0.7314440303187322</t>
   </si>
   <si>
     <t>DB2022101914</t>
   </si>
   <si>
-    <t>8.355638674120431</t>
+    <t>9.311591996461724</t>
   </si>
   <si>
     <t>DB2022101915</t>
   </si>
   <si>
-    <t>0.7127484205971433</t>
+    <t>0.6971090981786324</t>
   </si>
   <si>
     <t>DB2022101916</t>
   </si>
   <si>
-    <t>0.7235723435489619</t>
+    <t>0.7535426559026306</t>
   </si>
   <si>
     <t>DB2022101917</t>
   </si>
   <si>
-    <t>0.710277270521369</t>
+    <t>0.7319093515626</t>
   </si>
   <si>
     <t>DB2022101918</t>
   </si>
   <si>
-    <t>0.6867343547997963</t>
+    <t>0.6688212845267936</t>
   </si>
   <si>
     <t>DB2022101920</t>
   </si>
   <si>
-    <t>0.7179059862326688</t>
+    <t>0.7088161265313727</t>
   </si>
   <si>
     <t>DB2022101921</t>
   </si>
   <si>
-    <t>0.7360351301792927</t>
+    <t>0.7213395706302304</t>
   </si>
   <si>
     <t>DB2022101922</t>
   </si>
   <si>
-    <t>0.7381993547527205</t>
+    <t>0.728924291000847</t>
   </si>
   <si>
     <t>DB2022101923</t>
   </si>
   <si>
-    <t>0.6952986970062914</t>
+    <t>0.7118583122776374</t>
   </si>
   <si>
     <t>DB2022101925</t>
   </si>
   <si>
-    <t>0.7132182033463416</t>
+    <t>0.6837281534292525</t>
   </si>
   <si>
     <t>DB2022101927</t>
   </si>
   <si>
-    <t>0.9643560866458759</t>
+    <t>0.869682122382127</t>
   </si>
   <si>
     <t>DB2022101928</t>
   </si>
   <si>
-    <t>0.6607239559095405</t>
+    <t>0.6599810591602807</t>
   </si>
   <si>
     <t>DB2022101934</t>
   </si>
   <si>
-    <t>0.7421033417472497</t>
+    <t>0.7175569860226226</t>
   </si>
   <si>
     <t>DB2022101935</t>
   </si>
   <si>
-    <t>0.743619793607904</t>
+    <t>0.7195374187913366</t>
   </si>
   <si>
     <t>DB2022101936</t>
   </si>
   <si>
-    <t>0.8315147841223064</t>
+    <t>0.7764814443330273</t>
   </si>
   <si>
     <t>DB2022101940</t>
   </si>
   <si>
-    <t>0.6767159260555421</t>
+    <t>0.6830796095666701</t>
   </si>
   <si>
     <t>DB2022101941</t>
   </si>
   <si>
-    <t>0.7700262681992535</t>
+    <t>0.7164763977918654</t>
   </si>
   <si>
     <t>DB2022101944</t>
   </si>
   <si>
-    <t>0.7023605842569414</t>
+    <t>0.728720654116068</t>
   </si>
   <si>
     <t>DB2022101946</t>
   </si>
   <si>
-    <t>0.8796584697465054</t>
+    <t>0.8101802983535168</t>
   </si>
   <si>
     <t>DB2022101949</t>
   </si>
   <si>
-    <t>0.6934660507830895</t>
+    <t>0.6319004666262916</t>
   </si>
   <si>
     <t>DB2022101950</t>
   </si>
   <si>
-    <t>5.149071790335137</t>
+    <t>4.135957770404866</t>
   </si>
   <si>
     <t>DB2022101952</t>
   </si>
   <si>
-    <t>1.5692790628839188</t>
+    <t>1.2495287340409726</t>
   </si>
   <si>
     <t>DB2022101953</t>
   </si>
   <si>
-    <t>1.1755815527408</t>
+    <t>1.0057297317630969</t>
   </si>
   <si>
     <t>DB2022101955</t>
   </si>
   <si>
-    <t>2.994297551549976</t>
+    <t>3.201312143085443</t>
   </si>
   <si>
     <t>DB2022101956</t>
   </si>
   <si>
-    <t>0.7167233763709163</t>
+    <t>0.7190440147513353</t>
   </si>
   <si>
     <t>DB2022101957</t>
   </si>
   <si>
-    <t>0.6881108974341651</t>
+    <t>0.6919413333723731</t>
   </si>
   <si>
     <t>DB2022101958</t>
   </si>
   <si>
-    <t>0.8688726787161603</t>
+    <t>0.8060329057101088</t>
   </si>
   <si>
     <t>DB2022101959</t>
   </si>
   <si>
-    <t>0.9948312966535298</t>
+    <t>0.9644027176240466</t>
   </si>
   <si>
     <t>DB2022101960</t>
   </si>
   <si>
-    <t>0.7493200617714854</t>
+    <t>0.7271572469476381</t>
   </si>
   <si>
     <t>DB2022101963</t>
   </si>
   <si>
-    <t>0.9800315858995162</t>
+    <t>0.8777089555010639</t>
   </si>
   <si>
     <t>DB2022102014</t>
   </si>
   <si>
-    <t>1.034523722098603</t>
+    <t>0.9102212665824345</t>
   </si>
   <si>
     <t>DB2022103718</t>
   </si>
   <si>
-    <t>0.6432770623202355</t>
+    <t>0.6707279649882458</t>
   </si>
   <si>
     <t>DB2022104187</t>
   </si>
   <si>
-    <t>0.707224434910166</t>
+    <t>0.7183573351316279</t>
   </si>
   <si>
     <t>DB2022104334</t>
   </si>
   <si>
-    <t>0.9962972039734662</t>
+    <t>0.947941746286368</t>
   </si>
   <si>
     <t>DB2022104384</t>
   </si>
   <si>
-    <t>11.649802772788282</t>
+    <t>12.82802743890324</t>
   </si>
   <si>
     <t>DB2022104482</t>
   </si>
   <si>
-    <t>0.5945953490361481</t>
+    <t>0.7935804475375742</t>
   </si>
   <si>
     <t>DB2022104682</t>
   </si>
   <si>
-    <t>0.7067307735101078</t>
+    <t>0.67676337416991</t>
   </si>
   <si>
     <t>DB2023100484</t>
   </si>
   <si>
-    <t>0.7747552206310404</t>
+    <t>0.7405794225659681</t>
   </si>
   <si>
     <t>DB2023100485</t>
   </si>
   <si>
-    <t>0.7599097922073355</t>
+    <t>0.7403633778770472</t>
   </si>
   <si>
     <t>DB2023100486</t>
   </si>
   <si>
-    <t>0.7214021248294191</t>
+    <t>0.6687850097655228</t>
   </si>
   <si>
     <t>DB2023100487</t>
   </si>
   <si>
-    <t>0.6916251208415616</t>
+    <t>0.6906603413778465</t>
   </si>
   <si>
     <t>DB2023101253</t>
   </si>
   <si>
-    <t>0.7571508747668464</t>
+    <t>0.6567420218060616</t>
   </si>
   <si>
     <t>DB2023101258</t>
   </si>
   <si>
-    <t>0.694196658035734</t>
+    <t>0.6678035444657299</t>
   </si>
   <si>
     <t>DB2023101260</t>
   </si>
   <si>
-    <t>0.6741427808646876</t>
+    <t>0.6154570305307614</t>
   </si>
   <si>
     <t>DB2023101265</t>
   </si>
   <si>
-    <t>0.7141480661349505</t>
+    <t>0.7141257813822888</t>
   </si>
   <si>
     <t>DB2023101271</t>
   </si>
   <si>
-    <t>1.7189021694641107</t>
+    <t>1.4236375901412006</t>
   </si>
   <si>
     <t>DB2023101275</t>
   </si>
   <si>
-    <t>0.7141087006835619</t>
+    <t>0.7095552059848368</t>
   </si>
   <si>
     <t>DB2023101277</t>
   </si>
   <si>
-    <t>0.7074604873579647</t>
+    <t>0.6732392773545074</t>
   </si>
   <si>
     <t>DB2023101279</t>
   </si>
   <si>
-    <t>0.694863025854475</t>
+    <t>0.710125028997678</t>
   </si>
   <si>
     <t>DB2023101281</t>
   </si>
   <si>
-    <t>0.6973965527722618</t>
+    <t>0.7012044973044638</t>
   </si>
   <si>
     <t>DB2023101285</t>
   </si>
   <si>
-    <t>0.6188604141280134</t>
+    <t>0.5738781326006507</t>
   </si>
   <si>
     <t>DB2023101287</t>
   </si>
   <si>
-    <t>0.7184613743631099</t>
+    <t>0.7182083629063492</t>
   </si>
   <si>
     <t>DB2023101290</t>
   </si>
   <si>
-    <t>0.6718765017942145</t>
+    <t>0.6716343889113786</t>
   </si>
   <si>
     <t>DB2023102961</t>
   </si>
   <si>
-    <t>7.462395422951333</t>
+    <t>8.494155687065568</t>
   </si>
   <si>
     <t>DB2023103111</t>
   </si>
   <si>
-    <t>0.32999471789924406</t>
+    <t>0.4967986351270562</t>
   </si>
   <si>
     <t>DB2023103208</t>
   </si>
   <si>
-    <t>0.6956459174827565</t>
+    <t>0.6994496638632689</t>
   </si>
   <si>
     <t>DB2023103209</t>
   </si>
   <si>
-    <t>0.8001541830582694</t>
+    <t>0.7706431764519046</t>
   </si>
   <si>
     <t>DB2023103298</t>
   </si>
   <si>
-    <t>0.7461883481306079</t>
+    <t>0.707047489291975</t>
   </si>
   <si>
     <t>DB2023103409</t>
   </si>
   <si>
-    <t>0.7676854861709218</t>
+    <t>0.7166018017037097</t>
   </si>
   <si>
     <t>DB2023103844</t>
   </si>
   <si>
-    <t>2.181395523295233</t>
+    <t>1.78033804404934</t>
   </si>
   <si>
     <t>DB2023104257</t>
   </si>
   <si>
-    <t>2.9208816205940256</t>
+    <t>2.2722716503138805</t>
   </si>
   <si>
     <t>DB2023104352</t>
   </si>
   <si>
-    <t>0.7336403589479786</t>
+    <t>0.6974117520636776</t>
   </si>
   <si>
     <t>DB2023104411</t>
   </si>
   <si>
-    <t>0.7011320311582386</t>
+    <t>0.6815599353186554</t>
   </si>
   <si>
     <t>DB2023104412</t>
   </si>
   <si>
-    <t>0.7329224259977964</t>
+    <t>0.7295146150641767</t>
   </si>
   <si>
     <t>DB2023104414</t>
   </si>
   <si>
-    <t>0.048428946934626745</t>
+    <t>0.07184085416291477</t>
   </si>
   <si>
     <t>DB2024103301</t>
   </si>
   <si>
-    <t>0.7057353249765177</t>
+    <t>0.7035582165358994</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +556,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -579,8 +587,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -883,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -943,27 +952,27 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3.5060473999692481</v>
+        <v>3.491079099996568</v>
       </c>
       <c r="D2">
-        <f>RANK(C2, C2:C50,1)</f>
+        <f>RANK(C2, C2:C80,1)</f>
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2.2431093771754171</v>
+        <v>2.1977880753883259</v>
       </c>
       <c r="F2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G2">
-        <f>RANK(F2, F2:F50)</f>
+        <f>RANK(F2, F2:F80)</f>
         <v>1</v>
       </c>
       <c r="H2">
-        <v>969.02325093978016</v>
+        <v>962.63117702008697</v>
       </c>
       <c r="I2">
-        <f>RANK(H2, H2:H50)</f>
+        <f>RANK(H2, H2:H80)</f>
         <v>1</v>
       </c>
       <c r="J2" t="s">
@@ -978,28 +987,28 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>339.7992719998656</v>
+        <v>313.47205300002321</v>
       </c>
       <c r="D3">
-        <f>RANK(C3, C2:C50,1)</f>
-        <v>27</v>
+        <f>RANK(C3, C2:C80,1)</f>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>1.0682885161318969</v>
+        <v>1.066129447372534</v>
       </c>
       <c r="F3">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G3">
-        <f>RANK(F3, F2:F50)</f>
-        <v>25</v>
+        <f>RANK(F3, F2:F80)</f>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>210.45283767798361</v>
+        <v>192.96942997442861</v>
       </c>
       <c r="I3">
-        <f>RANK(H3, H2:H50)</f>
-        <v>26</v>
+        <f>RANK(H3, H2:H80)</f>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -1013,28 +1022,28 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>2570.3059133997958</v>
+        <v>2532.5419216998271</v>
       </c>
       <c r="D4">
-        <f>RANK(C4, C2:C50,1)</f>
-        <v>47</v>
+        <f>RANK(C4, C2:C80,1)</f>
+        <v>75</v>
       </c>
       <c r="E4">
-        <v>1.0096679397897621</v>
+        <v>1.0087526109772691</v>
       </c>
       <c r="F4">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G4">
-        <f>RANK(F4, F2:F50)</f>
-        <v>6</v>
+        <f>RANK(F4, F2:F80)</f>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>338.23875982957031</v>
+        <v>344.99339295422612</v>
       </c>
       <c r="I4">
-        <f>RANK(H4, H2:H50)</f>
-        <v>6</v>
+        <f>RANK(H4, H2:H80)</f>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -1048,28 +1057,28 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>341.15107049974898</v>
+        <v>286.51081909998169</v>
       </c>
       <c r="D5">
-        <f>RANK(C5, C2:C50,1)</f>
-        <v>29</v>
+        <f>RANK(C5, C2:C80,1)</f>
+        <v>33</v>
       </c>
       <c r="E5">
-        <v>1.068038054517173</v>
+        <v>1.0718637168348539</v>
       </c>
       <c r="F5">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="G5">
-        <f>RANK(F5, F2:F50)</f>
-        <v>30</v>
+        <f>RANK(F5, F2:F80)</f>
+        <v>58</v>
       </c>
       <c r="H5">
-        <v>194.38292592212559</v>
+        <v>167.21073982623719</v>
       </c>
       <c r="I5">
-        <f>RANK(H5, H2:H50)</f>
-        <v>31</v>
+        <f>RANK(H5, H2:H80)</f>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -1083,28 +1092,28 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>419.75774750007258</v>
+        <v>333.19245710005998</v>
       </c>
       <c r="D6">
-        <f>RANK(C6, C2:C50,1)</f>
-        <v>36</v>
+        <f>RANK(C6, C2:C80,1)</f>
+        <v>61</v>
       </c>
       <c r="E6">
-        <v>1.0560816081112701</v>
+        <v>1.062483655112368</v>
       </c>
       <c r="F6">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G6">
-        <f>RANK(F6, F2:F50)</f>
-        <v>8</v>
+        <f>RANK(F6, F2:F80)</f>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>335.83395137938402</v>
+        <v>344.24470425640737</v>
       </c>
       <c r="I6">
-        <f>RANK(H6, H2:H50)</f>
-        <v>8</v>
+        <f>RANK(H6, H2:H80)</f>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -1118,28 +1127,28 @@
         <v>22</v>
       </c>
       <c r="C7">
-        <v>341.55481179984048</v>
+        <v>289.87866439987192</v>
       </c>
       <c r="D7">
-        <f>RANK(C7, C2:C50,1)</f>
-        <v>30</v>
+        <f>RANK(C7, C2:C80,1)</f>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>1.067963605856397</v>
+        <v>1.0710935335328871</v>
       </c>
       <c r="F7">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G7">
-        <f>RANK(F7, F2:F50)</f>
-        <v>27</v>
+        <f>RANK(F7, F2:F80)</f>
+        <v>42</v>
       </c>
       <c r="H7">
-        <v>207.184939536141</v>
+        <v>216.36089377364311</v>
       </c>
       <c r="I7">
-        <f>RANK(H7, H2:H50)</f>
-        <v>27</v>
+        <f>RANK(H7, H2:H80)</f>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -1153,28 +1162,28 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>378.33335429999721</v>
+        <v>318.72908590010411</v>
       </c>
       <c r="D8">
-        <f>RANK(C8, C2:C50,1)</f>
-        <v>33</v>
+        <f>RANK(C8, C2:C80,1)</f>
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>1.061804274259019</v>
+        <v>1.0651165276950689</v>
       </c>
       <c r="F8">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G8">
-        <f>RANK(F8, F2:F50)</f>
-        <v>11</v>
+        <f>RANK(F8, F2:F80)</f>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>313.23226090641049</v>
+        <v>324.86054094699608</v>
       </c>
       <c r="I8">
-        <f>RANK(H8, H2:H50)</f>
-        <v>11</v>
+        <f>RANK(H8, H2:H80)</f>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -1188,11 +1197,11 @@
         <v>26</v>
       </c>
       <c r="C9">
-        <v>691.71001000024262</v>
+        <v>624.19604370021989</v>
       </c>
       <c r="D9">
-        <f>RANK(C9, C2:C50,1)</f>
-        <v>43</v>
+        <f>RANK(C9, C2:C80,1)</f>
+        <v>70</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1201,15 +1210,15 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <f>RANK(F9, F2:F50)</f>
-        <v>48</v>
+        <f>RANK(F9, F2:F80)</f>
+        <v>76</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <f>RANK(H9, H2:H50)</f>
-        <v>48</v>
+        <f>RANK(H9, H2:H80)</f>
+        <v>76</v>
       </c>
       <c r="J9" t="s">
         <v>27</v>
@@ -1223,28 +1232,28 @@
         <v>29</v>
       </c>
       <c r="C10">
-        <v>332.62120940002211</v>
+        <v>281.97640479999973</v>
       </c>
       <c r="D10">
-        <f>RANK(C10, C2:C50,1)</f>
-        <v>22</v>
+        <f>RANK(C10, C2:C80,1)</f>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1.0696500457402649</v>
+        <v>1.072927491430745</v>
       </c>
       <c r="F10">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10">
-        <f>RANK(F10, F2:F50)</f>
-        <v>44</v>
+        <f>RANK(F10, F2:F80)</f>
+        <v>73</v>
       </c>
       <c r="H10">
-        <v>82.363053522000428</v>
+        <v>78.323706874444383</v>
       </c>
       <c r="I10">
-        <f>RANK(H10, H2:H50)</f>
-        <v>44</v>
+        <f>RANK(H10, H2:H80)</f>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -1258,28 +1267,28 @@
         <v>31</v>
       </c>
       <c r="C11">
-        <v>340.12205510023341</v>
+        <v>287.47288350019522</v>
       </c>
       <c r="D11">
-        <f>RANK(C11, C2:C50,1)</f>
-        <v>28</v>
+        <f>RANK(C11, C2:C80,1)</f>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>1.068228543002625</v>
+        <v>1.0716420037664269</v>
       </c>
       <c r="F11">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="G11">
-        <f>RANK(F11, F2:F50)</f>
-        <v>32</v>
+        <f>RANK(F11, F2:F80)</f>
+        <v>61</v>
       </c>
       <c r="H11">
-        <v>190.14468065446721</v>
+        <v>153.24480653859911</v>
       </c>
       <c r="I11">
-        <f>RANK(H11, H2:H50)</f>
-        <v>32</v>
+        <f>RANK(H11, H2:H80)</f>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -1293,28 +1302,28 @@
         <v>33</v>
       </c>
       <c r="C12">
-        <v>315.06721830015158</v>
+        <v>284.52135840011027</v>
       </c>
       <c r="D12">
-        <f>RANK(C12, C2:C50,1)</f>
-        <v>10</v>
+        <f>RANK(C12, C2:C80,1)</f>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>1.0732207000849869</v>
+        <v>1.07232659022546</v>
       </c>
       <c r="F12">
         <v>104</v>
       </c>
       <c r="G12">
-        <f>RANK(F12, F2:F50)</f>
-        <v>41</v>
+        <f>RANK(F12, F2:F80)</f>
+        <v>67</v>
       </c>
       <c r="H12">
-        <v>111.61495280883859</v>
+        <v>111.52196538344781</v>
       </c>
       <c r="I12">
-        <f>RANK(H12, H2:H50)</f>
-        <v>41</v>
+        <f>RANK(H12, H2:H80)</f>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -1328,28 +1337,28 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>321.90025419997261</v>
+        <v>294.15031349981291</v>
       </c>
       <c r="D13">
-        <f>RANK(C13, C2:C50,1)</f>
-        <v>17</v>
+        <f>RANK(C13, C2:C80,1)</f>
+        <v>49</v>
       </c>
       <c r="E13">
-        <v>1.0717880296716551</v>
+        <v>1.0701401426342461</v>
       </c>
       <c r="F13">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G13">
-        <f>RANK(F13, F2:F50)</f>
-        <v>28</v>
+        <f>RANK(F13, F2:F80)</f>
+        <v>49</v>
       </c>
       <c r="H13">
-        <v>205.78330169695769</v>
+        <v>199.04606652996969</v>
       </c>
       <c r="I13">
-        <f>RANK(H13, H2:H50)</f>
-        <v>28</v>
+        <f>RANK(H13, H2:H80)</f>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -1363,28 +1372,28 @@
         <v>37</v>
       </c>
       <c r="C14">
-        <v>3770.9574545998912</v>
+        <v>3744.6579524998269</v>
       </c>
       <c r="D14">
-        <f>RANK(C14, C2:C50,1)</f>
-        <v>48</v>
+        <f>RANK(C14, C2:C80,1)</f>
+        <v>77</v>
       </c>
       <c r="E14">
-        <v>1.0066130126768771</v>
+        <v>1.0059387224041361</v>
       </c>
       <c r="F14">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="G14">
-        <f>RANK(F14, F2:F50)</f>
-        <v>34</v>
+        <f>RANK(F14, F2:F80)</f>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>175.15066420577659</v>
+        <v>250.4787418786299</v>
       </c>
       <c r="I14">
-        <f>RANK(H14, H2:H50)</f>
-        <v>37</v>
+        <f>RANK(H14, H2:H80)</f>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -1398,28 +1407,28 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>321.66828590012301</v>
+        <v>280.34251600011339</v>
       </c>
       <c r="D15">
-        <f>RANK(C15, C2:C50,1)</f>
-        <v>15</v>
+        <f>RANK(C15, C2:C80,1)</f>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1.0718357440069139</v>
+        <v>1.073318580460441</v>
       </c>
       <c r="F15">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G15">
-        <f>RANK(F15, F2:F50)</f>
-        <v>39</v>
+        <f>RANK(F15, F2:F80)</f>
+        <v>63</v>
       </c>
       <c r="H15">
-        <v>121.1174390727812</v>
+        <v>137.3847782989364</v>
       </c>
       <c r="I15">
-        <f>RANK(H15, H2:H50)</f>
-        <v>39</v>
+        <f>RANK(H15, H2:H80)</f>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -1433,28 +1442,28 @@
         <v>41</v>
       </c>
       <c r="C16">
-        <v>326.55319710022007</v>
+        <v>303.03727870012523</v>
       </c>
       <c r="D16">
-        <f>RANK(C16, C2:C50,1)</f>
-        <v>20</v>
+        <f>RANK(C16, C2:C80,1)</f>
+        <v>53</v>
       </c>
       <c r="E16">
-        <v>1.0708441905872561</v>
+        <v>1.068236535409631</v>
       </c>
       <c r="F16">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G16">
-        <f>RANK(F16, F2:F50)</f>
-        <v>23</v>
+        <f>RANK(F16, F2:F80)</f>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>223.8064358327365</v>
+        <v>228.60261857766099</v>
       </c>
       <c r="I16">
-        <f>RANK(H16, H2:H50)</f>
-        <v>22</v>
+        <f>RANK(H16, H2:H80)</f>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -1468,28 +1477,28 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <v>320.55303880015708</v>
+        <v>294.33744249955629</v>
       </c>
       <c r="D17">
-        <f>RANK(C17, C2:C50,1)</f>
-        <v>14</v>
+        <f>RANK(C17, C2:C80,1)</f>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>1.0720660333047261</v>
+        <v>1.0700989627956401</v>
       </c>
       <c r="F17">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="G17">
-        <f>RANK(F17, F2:F50)</f>
-        <v>38</v>
+        <f>RANK(F17, F2:F80)</f>
+        <v>57</v>
       </c>
       <c r="H17">
-        <v>151.16131069596639</v>
+        <v>168.0055371589155</v>
       </c>
       <c r="I17">
-        <f>RANK(H17, H2:H50)</f>
-        <v>38</v>
+        <f>RANK(H17, H2:H80)</f>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -1503,28 +1512,28 @@
         <v>45</v>
       </c>
       <c r="C18">
-        <v>309.92795829993702</v>
+        <v>268.96656799998158</v>
       </c>
       <c r="D18">
-        <f>RANK(C18, C2:C50,1)</f>
-        <v>6</v>
+        <f>RANK(C18, C2:C80,1)</f>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>1.0743365853511879</v>
+        <v>1.0761626281481891</v>
       </c>
       <c r="F18">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G18">
-        <f>RANK(F18, F2:F50)</f>
-        <v>29</v>
+        <f>RANK(F18, F2:F80)</f>
+        <v>48</v>
       </c>
       <c r="H18">
-        <v>198.75226828996981</v>
+        <v>205.54706197630409</v>
       </c>
       <c r="I18">
-        <f>RANK(H18, H2:H50)</f>
-        <v>29</v>
+        <f>RANK(H18, H2:H80)</f>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -1538,28 +1547,28 @@
         <v>47</v>
       </c>
       <c r="C19">
-        <v>323.99593090003327</v>
+        <v>285.05049900000091</v>
       </c>
       <c r="D19">
-        <f>RANK(C19, C2:C50,1)</f>
-        <v>19</v>
+        <f>RANK(C19, C2:C80,1)</f>
+        <v>29</v>
       </c>
       <c r="E19">
-        <v>1.071359825243501</v>
+        <v>1.0722028965239661</v>
       </c>
       <c r="F19">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G19">
-        <f>RANK(F19, F2:F50)</f>
-        <v>13</v>
+        <f>RANK(F19, F2:F80)</f>
+        <v>20</v>
       </c>
       <c r="H19">
-        <v>301.0521108934239</v>
+        <v>300.21681102671039</v>
       </c>
       <c r="I19">
-        <f>RANK(H19, H2:H50)</f>
-        <v>13</v>
+        <f>RANK(H19, H2:H80)</f>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -1573,28 +1582,28 @@
         <v>49</v>
       </c>
       <c r="C20">
-        <v>332.17773879974271</v>
+        <v>290.08680370013099</v>
       </c>
       <c r="D20">
-        <f>RANK(C20, C2:C50,1)</f>
-        <v>21</v>
+        <f>RANK(C20, C2:C80,1)</f>
+        <v>44</v>
       </c>
       <c r="E20">
-        <v>1.0697359496761289</v>
+        <v>1.071046477231957</v>
       </c>
       <c r="F20">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="G20">
-        <f>RANK(F20, F2:F50)</f>
-        <v>12</v>
+        <f>RANK(F20, F2:F80)</f>
+        <v>18</v>
       </c>
       <c r="H20">
-        <v>308.08395350672498</v>
+        <v>317.02975726065921</v>
       </c>
       <c r="I20">
-        <f>RANK(H20, H2:H50)</f>
-        <v>12</v>
+        <f>RANK(H20, H2:H80)</f>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -1608,28 +1617,28 @@
         <v>51</v>
       </c>
       <c r="C21">
-        <v>333.1544683002503</v>
+        <v>293.13699999998062</v>
       </c>
       <c r="D21">
-        <f>RANK(C21, C2:C50,1)</f>
-        <v>23</v>
+        <f>RANK(C21, C2:C80,1)</f>
+        <v>47</v>
       </c>
       <c r="E21">
-        <v>1.0695470295029681</v>
+        <v>1.07036397852953</v>
       </c>
       <c r="F21">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G21">
-        <f>RANK(F21, F2:F50)</f>
-        <v>19</v>
+        <f>RANK(F21, F2:F80)</f>
+        <v>28</v>
       </c>
       <c r="H21">
-        <v>250.2740049036945</v>
+        <v>264.37990269679381</v>
       </c>
       <c r="I21">
-        <f>RANK(H21, H2:H50)</f>
-        <v>19</v>
+        <f>RANK(H21, H2:H80)</f>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -1643,28 +1652,28 @@
         <v>53</v>
       </c>
       <c r="C22">
-        <v>313.79310510042711</v>
+        <v>286.27391440008068</v>
       </c>
       <c r="D22">
-        <f>RANK(C22, C2:C50,1)</f>
-        <v>9</v>
+        <f>RANK(C22, C2:C80,1)</f>
+        <v>32</v>
       </c>
       <c r="E22">
-        <v>1.0734942053113401</v>
+        <v>1.071918524042726</v>
       </c>
       <c r="F22">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G22">
-        <f>RANK(F22, F2:F50)</f>
-        <v>35</v>
+        <f>RANK(F22, F2:F80)</f>
+        <v>54</v>
       </c>
       <c r="H22">
-        <v>181.4205206976165</v>
+        <v>182.22614908726339</v>
       </c>
       <c r="I22">
-        <f>RANK(H22, H2:H50)</f>
-        <v>34</v>
+        <f>RANK(H22, H2:H80)</f>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -1678,28 +1687,28 @@
         <v>55</v>
       </c>
       <c r="C23">
-        <v>321.88030210010771</v>
+        <v>274.96136730000222</v>
       </c>
       <c r="D23">
-        <f>RANK(C23, C2:C50,1)</f>
-        <v>16</v>
+        <f>RANK(C23, C2:C80,1)</f>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>1.0717921311884979</v>
+        <v>1.0746368808332529</v>
       </c>
       <c r="F23">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G23">
-        <f>RANK(F23, F2:F50)</f>
-        <v>14</v>
+        <f>RANK(F23, F2:F80)</f>
+        <v>21</v>
       </c>
       <c r="H23">
-        <v>295.81462820802551</v>
+        <v>297.67441599081099</v>
       </c>
       <c r="I23">
-        <f>RANK(H23, H2:H50)</f>
-        <v>14</v>
+        <f>RANK(H23, H2:H80)</f>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -1713,28 +1722,28 @@
         <v>57</v>
       </c>
       <c r="C24">
-        <v>435.22056370021892</v>
+        <v>349.74278050011708</v>
       </c>
       <c r="D24">
-        <f>RANK(C24, C2:C50,1)</f>
-        <v>37</v>
+        <f>RANK(C24, C2:C80,1)</f>
+        <v>62</v>
       </c>
       <c r="E24">
-        <v>1.0542083533797371</v>
+        <v>1.0597209313454341</v>
       </c>
       <c r="F24">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G24">
-        <f>RANK(F24, F2:F50)</f>
-        <v>33</v>
+        <f>RANK(F24, F2:F80)</f>
+        <v>56</v>
       </c>
       <c r="H24">
-        <v>185.54067019483361</v>
+        <v>179.0928373973783</v>
       </c>
       <c r="I24">
-        <f>RANK(H24, H2:H50)</f>
-        <v>33</v>
+        <f>RANK(H24, H2:H80)</f>
+        <v>56</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -1748,28 +1757,28 @@
         <v>59</v>
       </c>
       <c r="C25">
-        <v>298.18928560025228</v>
+        <v>265.411470200037</v>
       </c>
       <c r="D25">
-        <f>RANK(C25, C2:C50,1)</f>
-        <v>4</v>
+        <f>RANK(C25, C2:C80,1)</f>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>1.0770179134200619</v>
+        <v>1.07709734789151</v>
       </c>
       <c r="F25">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G25">
-        <f>RANK(F25, F2:F50)</f>
-        <v>24</v>
+        <f>RANK(F25, F2:F80)</f>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>220.78867225111259</v>
+        <v>222.95915101354259</v>
       </c>
       <c r="I25">
-        <f>RANK(H25, H2:H50)</f>
-        <v>24</v>
+        <f>RANK(H25, H2:H80)</f>
+        <v>38</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1783,28 +1792,28 @@
         <v>61</v>
       </c>
       <c r="C26">
-        <v>334.91636459972511</v>
+        <v>288.56563680007088</v>
       </c>
       <c r="D26">
-        <f>RANK(C26, C2:C50,1)</f>
-        <v>24</v>
+        <f>RANK(C26, C2:C80,1)</f>
+        <v>38</v>
       </c>
       <c r="E26">
-        <v>1.0692088228977661</v>
+        <v>1.071391830078865</v>
       </c>
       <c r="F26">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="G26">
-        <f>RANK(F26, F2:F50)</f>
-        <v>20</v>
+        <f>RANK(F26, F2:F80)</f>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>244.84882044358849</v>
+        <v>253.91986372869101</v>
       </c>
       <c r="I26">
-        <f>RANK(H26, H2:H50)</f>
-        <v>20</v>
+        <f>RANK(H26, H2:H80)</f>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1818,28 +1827,28 @@
         <v>63</v>
       </c>
       <c r="C27">
-        <v>335.60074980012718</v>
+        <v>289.36206809985009</v>
       </c>
       <c r="D27">
-        <f>RANK(C27, C2:C50,1)</f>
-        <v>25</v>
+        <f>RANK(C27, C2:C80,1)</f>
+        <v>42</v>
       </c>
       <c r="E27">
-        <v>1.0690783382474061</v>
+        <v>1.071210596438116</v>
       </c>
       <c r="F27">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="G27">
-        <f>RANK(F27, F2:F50)</f>
-        <v>18</v>
+        <f>RANK(F27, F2:F80)</f>
+        <v>34</v>
       </c>
       <c r="H27">
-        <v>258.71695785587218</v>
+        <v>235.66633121638549</v>
       </c>
       <c r="I27">
-        <f>RANK(H27, H2:H50)</f>
-        <v>16</v>
+        <f>RANK(H27, H2:H80)</f>
+        <v>33</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1853,28 +1862,28 @@
         <v>65</v>
       </c>
       <c r="C28">
-        <v>375.2683662001582</v>
+        <v>312.262115500238</v>
       </c>
       <c r="D28">
-        <f>RANK(C28, C2:C50,1)</f>
-        <v>32</v>
+        <f>RANK(C28, C2:C80,1)</f>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>1.06227453039562</v>
+        <v>1.066367062712966</v>
       </c>
       <c r="F28">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="G28">
-        <f>RANK(F28, F2:F50)</f>
-        <v>9</v>
+        <f>RANK(F28, F2:F80)</f>
+        <v>13</v>
       </c>
       <c r="H28">
-        <v>327.18055536185079</v>
+        <v>342.30382713086209</v>
       </c>
       <c r="I28">
-        <f>RANK(H28, H2:H50)</f>
-        <v>9</v>
+        <f>RANK(H28, H2:H80)</f>
+        <v>11</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1888,28 +1897,28 @@
         <v>67</v>
       </c>
       <c r="C29">
-        <v>305.4065722000887</v>
+        <v>274.70055529991811</v>
       </c>
       <c r="D29">
-        <f>RANK(C29, C2:C50,1)</f>
-        <v>5</v>
+        <f>RANK(C29, C2:C80,1)</f>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>1.075346889915763</v>
+        <v>1.074701984409379</v>
       </c>
       <c r="F29">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="G29">
-        <f>RANK(F29, F2:F50)</f>
-        <v>43</v>
+        <f>RANK(F29, F2:F80)</f>
+        <v>66</v>
       </c>
       <c r="H29">
-        <v>83.877057413429512</v>
+        <v>112.8437083629848</v>
       </c>
       <c r="I29">
-        <f>RANK(H29, H2:H50)</f>
-        <v>43</v>
+        <f>RANK(H29, H2:H80)</f>
+        <v>66</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1923,28 +1932,28 @@
         <v>69</v>
       </c>
       <c r="C30">
-        <v>347.51817419981671</v>
+        <v>288.13107810020301</v>
       </c>
       <c r="D30">
-        <f>RANK(C30, C2:C50,1)</f>
-        <v>31</v>
+        <f>RANK(C30, C2:C80,1)</f>
+        <v>36</v>
       </c>
       <c r="E30">
-        <v>1.066882690461407</v>
+        <v>1.0714911074312681</v>
       </c>
       <c r="F30">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G30">
-        <f>RANK(F30, F2:F50)</f>
-        <v>35</v>
+        <f>RANK(F30, F2:F80)</f>
+        <v>54</v>
       </c>
       <c r="H30">
-        <v>180.3031746879777</v>
+        <v>182.1534882633155</v>
       </c>
       <c r="I30">
-        <f>RANK(H30, H2:H50)</f>
-        <v>35</v>
+        <f>RANK(H30, H2:H80)</f>
+        <v>55</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1958,28 +1967,28 @@
         <v>71</v>
       </c>
       <c r="C31">
-        <v>316.98018360034621</v>
+        <v>293.05510739984311</v>
       </c>
       <c r="D31">
-        <f>RANK(C31, C2:C50,1)</f>
-        <v>11</v>
+        <f>RANK(C31, C2:C80,1)</f>
+        <v>46</v>
       </c>
       <c r="E31">
-        <v>1.072813867105413</v>
+        <v>1.070382130743265</v>
       </c>
       <c r="F31">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G31">
-        <f>RANK(F31, F2:F50)</f>
-        <v>46</v>
+        <f>RANK(F31, F2:F80)</f>
+        <v>72</v>
       </c>
       <c r="H31">
-        <v>78.315412298695165</v>
+        <v>86.700952590204466</v>
       </c>
       <c r="I31">
-        <f>RANK(H31, H2:H50)</f>
-        <v>46</v>
+        <f>RANK(H31, H2:H80)</f>
+        <v>72</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1993,28 +2002,28 @@
         <v>73</v>
       </c>
       <c r="C32">
-        <v>396.99594410019199</v>
+        <v>325.81411410003778</v>
       </c>
       <c r="D32">
-        <f>RANK(C32, C2:C50,1)</f>
-        <v>35</v>
+        <f>RANK(C32, C2:C80,1)</f>
+        <v>60</v>
       </c>
       <c r="E32">
-        <v>1.0590876709903889</v>
+        <v>1.063799576447207</v>
       </c>
       <c r="F32">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="G32">
-        <f>RANK(F32, F2:F50)</f>
-        <v>17</v>
+        <f>RANK(F32, F2:F80)</f>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>258.41739172165478</v>
+        <v>229.78070851259679</v>
       </c>
       <c r="I32">
-        <f>RANK(H32, H2:H50)</f>
-        <v>17</v>
+        <f>RANK(H32, H2:H80)</f>
+        <v>36</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -2028,28 +2037,28 @@
         <v>75</v>
       </c>
       <c r="C33">
-        <v>312.96601919992833</v>
+        <v>254.11885619984611</v>
       </c>
       <c r="D33">
-        <f>RANK(C33, C2:C50,1)</f>
-        <v>8</v>
+        <f>RANK(C33, C2:C80,1)</f>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>1.0736728492125629</v>
+        <v>1.0802252531426619</v>
       </c>
       <c r="F33">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G33">
-        <f>RANK(F33, F2:F50)</f>
-        <v>45</v>
+        <f>RANK(F33, F2:F80)</f>
+        <v>74</v>
       </c>
       <c r="H33">
-        <v>80.525463690942246</v>
+        <v>76.695992973129009</v>
       </c>
       <c r="I33">
-        <f>RANK(H33, H2:H50)</f>
-        <v>45</v>
+        <f>RANK(H33, H2:H80)</f>
+        <v>74</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -2063,28 +2072,28 @@
         <v>77</v>
       </c>
       <c r="C34">
-        <v>2323.8116689001331</v>
+        <v>1663.275964199802</v>
       </c>
       <c r="D34">
-        <f>RANK(C34, C2:C50,1)</f>
-        <v>46</v>
+        <f>RANK(C34, C2:C80,1)</f>
+        <v>74</v>
       </c>
       <c r="E34">
-        <v>1.010680936867846</v>
+        <v>1.0132576913494811</v>
       </c>
       <c r="F34">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="G34">
-        <f>RANK(F34, F2:F50)</f>
-        <v>21</v>
+        <f>RANK(F34, F2:F80)</f>
+        <v>6</v>
       </c>
       <c r="H34">
-        <v>223.36048704779401</v>
+        <v>364.77276888581309</v>
       </c>
       <c r="I34">
-        <f>RANK(H34, H2:H50)</f>
-        <v>23</v>
+        <f>RANK(H34, H2:H80)</f>
+        <v>6</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -2098,28 +2107,28 @@
         <v>79</v>
       </c>
       <c r="C35">
-        <v>708.22648170010507</v>
+        <v>502.49814559975857</v>
       </c>
       <c r="D35">
-        <f>RANK(C35, C2:C50,1)</f>
-        <v>44</v>
+        <f>RANK(C35, C2:C80,1)</f>
+        <v>68</v>
       </c>
       <c r="E35">
-        <v>1.03410555783973</v>
+        <v>1.042419085152571</v>
       </c>
       <c r="F35">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G35">
-        <f>RANK(F35, F2:F50)</f>
-        <v>40</v>
+        <f>RANK(F35, F2:F80)</f>
+        <v>69</v>
       </c>
       <c r="H35">
-        <v>115.8198224780498</v>
+        <v>100.0722321746468</v>
       </c>
       <c r="I35">
-        <f>RANK(H35, H2:H50)</f>
-        <v>40</v>
+        <f>RANK(H35, H2:H80)</f>
+        <v>69</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -2133,27 +2142,27 @@
         <v>81</v>
       </c>
       <c r="C36">
-        <v>530.54807569987315</v>
+        <v>404.45434460007158</v>
       </c>
       <c r="D36">
-        <f>RANK(C36, C2:C50,1)</f>
-        <v>42</v>
+        <f>RANK(C36, C2:C80,1)</f>
+        <v>67</v>
       </c>
       <c r="E36">
-        <v>1.044953777625188</v>
+        <v>1.0521068176928861</v>
       </c>
       <c r="F36">
         <v>375</v>
       </c>
       <c r="G36">
-        <f>RANK(F36, F2:F50)</f>
-        <v>4</v>
+        <f>RANK(F36, F2:F80)</f>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>391.85766660944552</v>
+        <v>394.5400566348323</v>
       </c>
       <c r="I36">
-        <f>RANK(H36, H2:H50)</f>
+        <f>RANK(H36, H2:H80)</f>
         <v>4</v>
       </c>
       <c r="J36" t="s">
@@ -2168,27 +2177,27 @@
         <v>83</v>
       </c>
       <c r="C37">
-        <v>1351.347169699889</v>
+        <v>1287.4081016000671</v>
       </c>
       <c r="D37">
-        <f>RANK(C37, C2:C50,1)</f>
-        <v>45</v>
+        <f>RANK(C37, C2:C80,1)</f>
+        <v>73</v>
       </c>
       <c r="E37">
-        <v>1.018207864577277</v>
+        <v>1.017053250085161</v>
       </c>
       <c r="F37">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G37">
-        <f>RANK(F37, F2:F50)</f>
+        <f>RANK(F37, F2:F80)</f>
         <v>3</v>
       </c>
       <c r="H37">
-        <v>384.88257281021089</v>
+        <v>383.4290752821056</v>
       </c>
       <c r="I37">
-        <f>RANK(H37, H2:H50)</f>
+        <f>RANK(H37, H2:H80)</f>
         <v>5</v>
       </c>
       <c r="J37" t="s">
@@ -2203,28 +2212,28 @@
         <v>85</v>
       </c>
       <c r="C38">
-        <v>323.46221089992468</v>
+        <v>289.16364559992871</v>
       </c>
       <c r="D38">
-        <f>RANK(C38, C2:C50,1)</f>
-        <v>18</v>
+        <f>RANK(C38, C2:C80,1)</f>
+        <v>41</v>
       </c>
       <c r="E38">
-        <v>1.071468392271882</v>
+        <v>1.0712556625842451</v>
       </c>
       <c r="F38">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="G38">
-        <f>RANK(F38, F2:F50)</f>
-        <v>37</v>
+        <f>RANK(F38, F2:F80)</f>
+        <v>49</v>
       </c>
       <c r="H38">
-        <v>176.79228472486059</v>
+        <v>199.2535532406695</v>
       </c>
       <c r="I38">
-        <f>RANK(H38, H2:H50)</f>
-        <v>36</v>
+        <f>RANK(H38, H2:H80)</f>
+        <v>49</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -2238,28 +2247,28 @@
         <v>87</v>
       </c>
       <c r="C39">
-        <v>310.54920150001999</v>
+        <v>278.26429870002539</v>
       </c>
       <c r="D39">
-        <f>RANK(C39, C2:C50,1)</f>
-        <v>7</v>
+        <f>RANK(C39, C2:C80,1)</f>
+        <v>20</v>
       </c>
       <c r="E39">
-        <v>1.074199886794905</v>
+        <v>1.0738221414036111</v>
       </c>
       <c r="F39">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G39">
-        <f>RANK(F39, F2:F50)</f>
-        <v>42</v>
+        <f>RANK(F39, F2:F80)</f>
+        <v>70</v>
       </c>
       <c r="H39">
-        <v>103.1231891323108</v>
+        <v>95.570170584921371</v>
       </c>
       <c r="I39">
-        <f>RANK(H39, H2:H50)</f>
-        <v>42</v>
+        <f>RANK(H39, H2:H80)</f>
+        <v>70</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -2273,28 +2282,28 @@
         <v>89</v>
       </c>
       <c r="C40">
-        <v>392.12824209967221</v>
+        <v>324.14623960014802</v>
       </c>
       <c r="D40">
-        <f>RANK(C40, C2:C50,1)</f>
-        <v>34</v>
+        <f>RANK(C40, C2:C80,1)</f>
+        <v>59</v>
       </c>
       <c r="E40">
-        <v>1.0597729085278531</v>
+        <v>1.064104772019393</v>
       </c>
       <c r="F40">
         <v>306</v>
       </c>
       <c r="G40">
-        <f>RANK(F40, F2:F50)</f>
-        <v>10</v>
+        <f>RANK(F40, F2:F80)</f>
+        <v>16</v>
       </c>
       <c r="H40">
-        <v>324.29051000952302</v>
+        <v>325.61606023793422</v>
       </c>
       <c r="I40">
-        <f>RANK(H40, H2:H50)</f>
-        <v>10</v>
+        <f>RANK(H40, H2:H80)</f>
+        <v>16</v>
       </c>
       <c r="J40" t="s">
         <v>12</v>
@@ -2308,28 +2317,28 @@
         <v>91</v>
       </c>
       <c r="C41">
-        <v>448.97423650021659</v>
+        <v>387.834680400043</v>
       </c>
       <c r="D41">
-        <f>RANK(C41, C2:C50,1)</f>
-        <v>39</v>
+        <f>RANK(C41, C2:C80,1)</f>
+        <v>66</v>
       </c>
       <c r="E41">
-        <v>1.0526444031167299</v>
+        <v>1.0542058892630961</v>
       </c>
       <c r="F41">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="G41">
-        <f>RANK(F41, F2:F50)</f>
-        <v>15</v>
+        <f>RANK(F41, F2:F80)</f>
+        <v>29</v>
       </c>
       <c r="H41">
-        <v>276.84547801970012</v>
+        <v>255.11782520166929</v>
       </c>
       <c r="I41">
-        <f>RANK(H41, H2:H50)</f>
-        <v>15</v>
+        <f>RANK(H41, H2:H80)</f>
+        <v>28</v>
       </c>
       <c r="J41" t="s">
         <v>12</v>
@@ -2343,28 +2352,28 @@
         <v>93</v>
       </c>
       <c r="C42">
-        <v>338.17332019995229</v>
+        <v>292.42638300035469</v>
       </c>
       <c r="D42">
-        <f>RANK(C42, C2:C50,1)</f>
-        <v>26</v>
+        <f>RANK(C42, C2:C80,1)</f>
+        <v>45</v>
       </c>
       <c r="E42">
-        <v>1.0685922317941809</v>
+        <v>1.0705218063033539</v>
       </c>
       <c r="F42">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G42">
-        <f>RANK(F42, F2:F50)</f>
-        <v>47</v>
+        <f>RANK(F42, F2:F80)</f>
+        <v>75</v>
       </c>
       <c r="H42">
-        <v>57.703980516885792</v>
+        <v>47.102959477347561</v>
       </c>
       <c r="I42">
-        <f>RANK(H42, H2:H50)</f>
-        <v>47</v>
+        <f>RANK(H42, H2:H80)</f>
+        <v>75</v>
       </c>
       <c r="J42" t="s">
         <v>12</v>
@@ -2378,28 +2387,28 @@
         <v>95</v>
       </c>
       <c r="C43">
-        <v>442.29502480014338</v>
+        <v>352.97077250015718</v>
       </c>
       <c r="D43">
-        <f>RANK(C43, C2:C50,1)</f>
-        <v>38</v>
+        <f>RANK(C43, C2:C80,1)</f>
+        <v>63</v>
       </c>
       <c r="E43">
-        <v>1.0533924605423099</v>
+        <v>1.059210359103395</v>
       </c>
       <c r="F43">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="G43">
-        <f>RANK(F43, F2:F50)</f>
-        <v>4</v>
+        <f>RANK(F43, F2:F80)</f>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>395.02217270336621</v>
+        <v>409.91440897301368</v>
       </c>
       <c r="I43">
-        <f>RANK(H43, H2:H50)</f>
-        <v>3</v>
+        <f>RANK(H43, H2:H80)</f>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
         <v>12</v>
@@ -2413,28 +2422,28 @@
         <v>97</v>
       </c>
       <c r="C44">
-        <v>466.88770229988592</v>
+        <v>366.04560270011279</v>
       </c>
       <c r="D44">
-        <f>RANK(C44, C2:C50,1)</f>
-        <v>41</v>
+        <f>RANK(C44, C2:C80,1)</f>
+        <v>64</v>
       </c>
       <c r="E44">
-        <v>1.0507379948807709</v>
+        <v>1.057228740293489</v>
       </c>
       <c r="F44">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G44">
-        <f>RANK(F44, F2:F50)</f>
-        <v>2</v>
+        <f>RANK(F44, F2:F80)</f>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>400.33117604957368</v>
+        <v>398.57523509064549</v>
       </c>
       <c r="I44">
-        <f>RANK(H44, H2:H50)</f>
-        <v>2</v>
+        <f>RANK(H44, H2:H80)</f>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -2448,28 +2457,28 @@
         <v>99</v>
       </c>
       <c r="C45">
-        <v>290.31538199980417</v>
+        <v>269.73333979964451</v>
       </c>
       <c r="D45">
-        <f>RANK(C45, C2:C50,1)</f>
-        <v>3</v>
+        <f>RANK(C45, C2:C80,1)</f>
+        <v>12</v>
       </c>
       <c r="E45">
-        <v>1.0789278391325809</v>
+        <v>1.07596399679148</v>
       </c>
       <c r="F45">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="G45">
-        <f>RANK(F45, F2:F50)</f>
-        <v>25</v>
+        <f>RANK(F45, F2:F80)</f>
+        <v>53</v>
       </c>
       <c r="H45">
-        <v>212.54878430911839</v>
+        <v>193.6735194224664</v>
       </c>
       <c r="I45">
-        <f>RANK(H45, H2:H50)</f>
-        <v>25</v>
+        <f>RANK(H45, H2:H80)</f>
+        <v>51</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -2483,28 +2492,28 @@
         <v>101</v>
       </c>
       <c r="C46">
-        <v>319.17527299975342</v>
+        <v>288.88749730007481</v>
       </c>
       <c r="D46">
-        <f>RANK(C46, C2:C50,1)</f>
-        <v>13</v>
+        <f>RANK(C46, C2:C80,1)</f>
+        <v>40</v>
       </c>
       <c r="E46">
-        <v>1.0723525821334901</v>
+        <v>1.071318477211932</v>
       </c>
       <c r="F46">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G46">
-        <f>RANK(F46, F2:F50)</f>
-        <v>22</v>
+        <f>RANK(F46, F2:F80)</f>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>235.9175680693678</v>
+        <v>242.1179758498966</v>
       </c>
       <c r="I46">
-        <f>RANK(H46, H2:H50)</f>
-        <v>21</v>
+        <f>RANK(H46, H2:H80)</f>
+        <v>31</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -2518,28 +2527,28 @@
         <v>103</v>
       </c>
       <c r="C47">
-        <v>449.63581060022989</v>
+        <v>381.21489860022479</v>
       </c>
       <c r="D47">
-        <f>RANK(C47, C2:C50,1)</f>
-        <v>40</v>
+        <f>RANK(C47, C2:C80,1)</f>
+        <v>65</v>
       </c>
       <c r="E47">
-        <v>1.0525714489763329</v>
+        <v>1.055089899151693</v>
       </c>
       <c r="F47">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="G47">
-        <f>RANK(F47, F2:F50)</f>
-        <v>7</v>
+        <f>RANK(F47, F2:F80)</f>
+        <v>9</v>
       </c>
       <c r="H47">
-        <v>337.87543512140297</v>
+        <v>349.23475661921032</v>
       </c>
       <c r="I47">
-        <f>RANK(H47, H2:H50)</f>
-        <v>7</v>
+        <f>RANK(H47, H2:H80)</f>
+        <v>8</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -2553,28 +2562,28 @@
         <v>105</v>
       </c>
       <c r="C48">
-        <v>5257.6364684999862</v>
+        <v>5158.7929305996477</v>
       </c>
       <c r="D48">
-        <f>RANK(C48, C2:C50,1)</f>
-        <v>49</v>
+        <f>RANK(C48, C2:C80,1)</f>
+        <v>78</v>
       </c>
       <c r="E48">
-        <v>1.0047532683538389</v>
+        <v>1.004318854880778</v>
       </c>
       <c r="F48">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="G48">
-        <f>RANK(F48, F2:F50)</f>
-        <v>16</v>
+        <f>RANK(F48, F2:F80)</f>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>255.20733016187509</v>
+        <v>231.9976554774598</v>
       </c>
       <c r="I48">
-        <f>RANK(H48, H2:H50)</f>
-        <v>18</v>
+        <f>RANK(H48, H2:H80)</f>
+        <v>35</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -2588,31 +2597,31 @@
         <v>107</v>
       </c>
       <c r="C49">
-        <v>268.3449885001537</v>
+        <v>319.13848189967388</v>
       </c>
       <c r="D49">
-        <f>RANK(C49, C2:C50,1)</f>
-        <v>2</v>
+        <f>RANK(C49, C2:C80,1)</f>
+        <v>58</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>1.065038948921766</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="G49">
-        <f>RANK(F49, F2:F50)</f>
-        <v>48</v>
+        <f>RANK(F49, F2:F80)</f>
+        <v>14</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>326.96695731898222</v>
       </c>
       <c r="I49">
-        <f>RANK(H49, H2:H50)</f>
-        <v>48</v>
+        <f>RANK(H49, H2:H80)</f>
+        <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2623,28 +2632,28 @@
         <v>109</v>
       </c>
       <c r="C50">
-        <v>318.9524801996813</v>
+        <v>272.16048040001618</v>
       </c>
       <c r="D50">
-        <f>RANK(C50, C2:C50,1)</f>
-        <v>12</v>
+        <f>RANK(C50, C2:C80,1)</f>
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>1.0723991334278919</v>
+        <v>1.0753420401478371</v>
       </c>
       <c r="F50">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G50">
-        <f>RANK(F50, F2:F50)</f>
-        <v>30</v>
+        <f>RANK(F50, F2:F80)</f>
+        <v>44</v>
       </c>
       <c r="H50">
-        <v>195.17664228387639</v>
+        <v>209.6916978288283</v>
       </c>
       <c r="I50">
-        <f>RANK(H50, H2:H50)</f>
-        <v>30</v>
+        <f>RANK(H50, H2:H80)</f>
+        <v>44</v>
       </c>
       <c r="J50" t="s">
         <v>12</v>
@@ -2658,28 +2667,28 @@
         <v>111</v>
       </c>
       <c r="C51">
-        <v>349.65238310000859</v>
-      </c>
-      <c r="D51" t="e">
-        <f>RANK(C51, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>297.82411269986551</v>
+      </c>
+      <c r="D51">
+        <f>RANK(C51, C2:C80,1)</f>
+        <v>52</v>
       </c>
       <c r="E51">
-        <v>1.066504168432868</v>
+        <v>1.0693404486840821</v>
       </c>
       <c r="F51">
-        <v>211</v>
-      </c>
-      <c r="G51" t="e">
-        <f>RANK(F51, F2:F50)</f>
-        <v>#N/A</v>
+        <v>221</v>
+      </c>
+      <c r="G51">
+        <f>RANK(F51, F2:F80)</f>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>225.03237953933521</v>
-      </c>
-      <c r="I51" t="e">
-        <f>RANK(H51, H2:H50)</f>
-        <v>#N/A</v>
+        <v>236.3242391591821</v>
+      </c>
+      <c r="I51">
+        <f>RANK(H51, H2:H80)</f>
+        <v>32</v>
       </c>
       <c r="J51" t="s">
         <v>12</v>
@@ -2693,28 +2702,28 @@
         <v>113</v>
       </c>
       <c r="C52">
-        <v>342.95253869978478</v>
-      </c>
-      <c r="D52" t="e">
-        <f>RANK(C52, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>297.73723029965191</v>
+      </c>
+      <c r="D52">
+        <f>RANK(C52, C2:C80,1)</f>
+        <v>51</v>
       </c>
       <c r="E52">
-        <v>1.067707125439334</v>
+        <v>1.069359149774707</v>
       </c>
       <c r="F52">
-        <v>261</v>
-      </c>
-      <c r="G52" t="e">
-        <f>RANK(F52, F2:F50)</f>
-        <v>#N/A</v>
+        <v>276</v>
+      </c>
+      <c r="G52">
+        <f>RANK(F52, F2:F80)</f>
+        <v>22</v>
       </c>
       <c r="H52">
-        <v>278.67155973966618</v>
-      </c>
-      <c r="I52" t="e">
-        <f>RANK(H52, H2:H50)</f>
-        <v>#N/A</v>
+        <v>295.14312533781907</v>
+      </c>
+      <c r="I52">
+        <f>RANK(H52, H2:H80)</f>
+        <v>22</v>
       </c>
       <c r="J52" t="s">
         <v>12</v>
@@ -2728,28 +2737,28 @@
         <v>115</v>
       </c>
       <c r="C53">
-        <v>325.5737624001631</v>
-      </c>
-      <c r="D53" t="e">
-        <f>RANK(C53, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>268.95198009994061</v>
+      </c>
+      <c r="D53">
+        <f>RANK(C53, C2:C80,1)</f>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>1.071040794131048</v>
+        <v>1.0761664172225911</v>
       </c>
       <c r="F53">
-        <v>230</v>
-      </c>
-      <c r="G53" t="e">
-        <f>RANK(F53, F2:F50)</f>
-        <v>#N/A</v>
+        <v>205</v>
+      </c>
+      <c r="G53">
+        <f>RANK(F53, F2:F80)</f>
+        <v>39</v>
       </c>
       <c r="H53">
-        <v>246.33938265014089</v>
-      </c>
-      <c r="I53" t="e">
-        <f>RANK(H53, H2:H50)</f>
-        <v>#N/A</v>
+        <v>220.6141155306311</v>
+      </c>
+      <c r="I53">
+        <f>RANK(H53, H2:H80)</f>
+        <v>39</v>
       </c>
       <c r="J53" t="s">
         <v>12</v>
@@ -2763,28 +2772,28 @@
         <v>117</v>
       </c>
       <c r="C54">
-        <v>312.13519480012468</v>
-      </c>
-      <c r="D54" t="e">
-        <f>RANK(C54, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>277.74914760006141</v>
+      </c>
+      <c r="D54">
+        <f>RANK(C54, C2:C80,1)</f>
+        <v>19</v>
       </c>
       <c r="E54">
-        <v>1.0738531792150989</v>
+        <v>1.073948038942244</v>
       </c>
       <c r="F54">
-        <v>240</v>
-      </c>
-      <c r="G54" t="e">
-        <f>RANK(F54, F2:F50)</f>
-        <v>#N/A</v>
+        <v>219</v>
+      </c>
+      <c r="G54">
+        <f>RANK(F54, F2:F80)</f>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>257.72476301162379</v>
-      </c>
-      <c r="I54" t="e">
-        <f>RANK(H54, H2:H50)</f>
-        <v>#N/A</v>
+        <v>235.19462052835141</v>
+      </c>
+      <c r="I54">
+        <f>RANK(H54, H2:H80)</f>
+        <v>34</v>
       </c>
       <c r="J54" t="s">
         <v>12</v>
@@ -2798,28 +2807,28 @@
         <v>119</v>
       </c>
       <c r="C55">
-        <v>341.70742020021862</v>
-      </c>
-      <c r="D55" t="e">
-        <f>RANK(C55, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>264.10889089979167</v>
+      </c>
+      <c r="D55">
+        <f>RANK(C55, C2:C80,1)</f>
+        <v>7</v>
       </c>
       <c r="E55">
-        <v>1.067935507833933</v>
+        <v>1.077445611340268</v>
       </c>
       <c r="F55">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G55">
-        <f>RANK(F55, F2:F50)</f>
-        <v>13</v>
+        <f>RANK(F55, F2:F80)</f>
+        <v>19</v>
       </c>
       <c r="H55">
-        <v>300.08987770133513</v>
-      </c>
-      <c r="I55" t="e">
-        <f>RANK(H55, H2:H50)</f>
-        <v>#N/A</v>
+        <v>304.91710800929587</v>
+      </c>
+      <c r="I55">
+        <f>RANK(H55, H2:H80)</f>
+        <v>19</v>
       </c>
       <c r="J55" t="s">
         <v>12</v>
@@ -2833,28 +2842,28 @@
         <v>121</v>
       </c>
       <c r="C56">
-        <v>313.29574730010057</v>
-      </c>
-      <c r="D56" t="e">
-        <f>RANK(C56, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>268.55728369986542</v>
+      </c>
+      <c r="D56">
+        <f>RANK(C56, C2:C80,1)</f>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>1.0736015263482299</v>
+        <v>1.076269079680704</v>
       </c>
       <c r="F56">
-        <v>238</v>
-      </c>
-      <c r="G56" t="e">
-        <f>RANK(F56, F2:F50)</f>
-        <v>#N/A</v>
+        <v>203</v>
+      </c>
+      <c r="G56">
+        <f>RANK(F56, F2:F80)</f>
+        <v>40</v>
       </c>
       <c r="H56">
-        <v>255.51716327087871</v>
-      </c>
-      <c r="I56" t="e">
-        <f>RANK(H56, H2:H50)</f>
-        <v>#N/A</v>
+        <v>218.48262317518279</v>
+      </c>
+      <c r="I56">
+        <f>RANK(H56, H2:H80)</f>
+        <v>40</v>
       </c>
       <c r="J56" t="s">
         <v>12</v>
@@ -2868,28 +2877,28 @@
         <v>123</v>
       </c>
       <c r="C57">
-        <v>304.24529400010209</v>
-      </c>
-      <c r="D57" t="e">
-        <f>RANK(C57, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>247.50612619997631</v>
+      </c>
+      <c r="D57">
+        <f>RANK(C57, C2:C80,1)</f>
+        <v>5</v>
       </c>
       <c r="E57">
-        <v>1.0756108369855359</v>
+        <v>1.082177945852854</v>
       </c>
       <c r="F57">
-        <v>196</v>
-      </c>
-      <c r="G57" t="e">
-        <f>RANK(F57, F2:F50)</f>
-        <v>#N/A</v>
+        <v>199</v>
+      </c>
+      <c r="G57">
+        <f>RANK(F57, F2:F80)</f>
+        <v>43</v>
       </c>
       <c r="H57">
-        <v>210.8197240491651</v>
-      </c>
-      <c r="I57" t="e">
-        <f>RANK(H57, H2:H50)</f>
-        <v>#N/A</v>
+        <v>215.353411224718</v>
+      </c>
+      <c r="I57">
+        <f>RANK(H57, H2:H80)</f>
+        <v>43</v>
       </c>
       <c r="J57" t="s">
         <v>12</v>
@@ -2903,28 +2912,28 @@
         <v>125</v>
       </c>
       <c r="C58">
-        <v>322.29995560012321</v>
-      </c>
-      <c r="D58" t="e">
-        <f>RANK(C58, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>287.18577740030742</v>
+      </c>
+      <c r="D58">
+        <f>RANK(C58, C2:C80,1)</f>
+        <v>34</v>
       </c>
       <c r="E58">
-        <v>1.071705962626414</v>
+        <v>1.0717080252859841</v>
       </c>
       <c r="F58">
-        <v>258</v>
-      </c>
-      <c r="G58" t="e">
-        <f>RANK(F58, F2:F50)</f>
-        <v>#N/A</v>
+        <v>250</v>
+      </c>
+      <c r="G58">
+        <f>RANK(F58, F2:F80)</f>
+        <v>26</v>
       </c>
       <c r="H58">
-        <v>276.50013835761479</v>
-      </c>
-      <c r="I58" t="e">
-        <f>RANK(H58, H2:H50)</f>
-        <v>#N/A</v>
+        <v>267.92700632149598</v>
+      </c>
+      <c r="I58">
+        <f>RANK(H58, H2:H80)</f>
+        <v>26</v>
       </c>
       <c r="J58" t="s">
         <v>12</v>
@@ -2938,28 +2947,28 @@
         <v>127</v>
       </c>
       <c r="C59">
-        <v>775.75242330005858</v>
-      </c>
-      <c r="D59" t="e">
-        <f>RANK(C59, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>572.51604510009201</v>
+      </c>
+      <c r="D59">
+        <f>RANK(C59, C2:C80,1)</f>
+        <v>69</v>
       </c>
       <c r="E59">
-        <v>1.03124096443552</v>
+        <v>1.0374482560157381</v>
       </c>
       <c r="F59">
-        <v>325</v>
-      </c>
-      <c r="G59" t="e">
-        <f>RANK(F59, F2:F50)</f>
-        <v>#N/A</v>
+        <v>328</v>
+      </c>
+      <c r="G59">
+        <f>RANK(F59, F2:F80)</f>
+        <v>10</v>
       </c>
       <c r="H59">
-        <v>335.15331344154379</v>
-      </c>
-      <c r="I59" t="e">
-        <f>RANK(H59, H2:H50)</f>
-        <v>#N/A</v>
+        <v>340.28302797316212</v>
+      </c>
+      <c r="I59">
+        <f>RANK(H59, H2:H80)</f>
+        <v>12</v>
       </c>
       <c r="J59" t="s">
         <v>12</v>
@@ -2973,28 +2982,28 @@
         <v>129</v>
       </c>
       <c r="C60">
-        <v>322.28218969997403</v>
-      </c>
-      <c r="D60" t="e">
-        <f>RANK(C60, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>285.34771989992811</v>
+      </c>
+      <c r="D60">
+        <f>RANK(C60, C2:C80,1)</f>
+        <v>30</v>
       </c>
       <c r="E60">
-        <v>1.0717096063428431</v>
+        <v>1.0721336029746971</v>
       </c>
       <c r="F60">
-        <v>179</v>
-      </c>
-      <c r="G60" t="e">
-        <f>RANK(F60, F2:F50)</f>
-        <v>#N/A</v>
+        <v>194</v>
+      </c>
+      <c r="G60">
+        <f>RANK(F60, F2:F80)</f>
+        <v>46</v>
       </c>
       <c r="H60">
-        <v>191.83601953536891</v>
-      </c>
-      <c r="I60" t="e">
-        <f>RANK(H60, H2:H50)</f>
-        <v>#N/A</v>
+        <v>207.9939189770912</v>
+      </c>
+      <c r="I60">
+        <f>RANK(H60, H2:H80)</f>
+        <v>46</v>
       </c>
       <c r="J60" t="s">
         <v>12</v>
@@ -3008,28 +3017,28 @@
         <v>131</v>
       </c>
       <c r="C61">
-        <v>319.28180510010128</v>
-      </c>
-      <c r="D61" t="e">
-        <f>RANK(C61, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>270.74326439976721</v>
+      </c>
+      <c r="D61">
+        <f>RANK(C61, C2:C80,1)</f>
+        <v>14</v>
       </c>
       <c r="E61">
-        <v>1.0723303440525029</v>
+        <v>1.0757039565255151</v>
       </c>
       <c r="F61">
-        <v>164</v>
-      </c>
-      <c r="G61" t="e">
-        <f>RANK(F61, F2:F50)</f>
-        <v>#N/A</v>
+        <v>149</v>
+      </c>
+      <c r="G61">
+        <f>RANK(F61, F2:F80)</f>
+        <v>60</v>
       </c>
       <c r="H61">
-        <v>175.86217642461051</v>
-      </c>
-      <c r="I61" t="e">
-        <f>RANK(H61, H2:H50)</f>
-        <v>#N/A</v>
+        <v>160.27988952230169</v>
+      </c>
+      <c r="I61">
+        <f>RANK(H61, H2:H80)</f>
+        <v>60</v>
       </c>
       <c r="J61" t="s">
         <v>12</v>
@@ -3043,28 +3052,28 @@
         <v>133</v>
       </c>
       <c r="C62">
-        <v>313.59648369998467</v>
-      </c>
-      <c r="D62" t="e">
-        <f>RANK(C62, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>285.57687429988073</v>
+      </c>
+      <c r="D62">
+        <f>RANK(C62, C2:C80,1)</f>
+        <v>31</v>
       </c>
       <c r="E62">
-        <v>1.073536595221227</v>
+        <v>1.072080269270725</v>
       </c>
       <c r="F62">
-        <v>210</v>
-      </c>
-      <c r="G62" t="e">
-        <f>RANK(F62, F2:F50)</f>
-        <v>#N/A</v>
+        <v>203</v>
+      </c>
+      <c r="G62">
+        <f>RANK(F62, F2:F80)</f>
+        <v>40</v>
       </c>
       <c r="H62">
-        <v>225.44268499645759</v>
-      </c>
-      <c r="I62" t="e">
-        <f>RANK(H62, H2:H50)</f>
-        <v>#N/A</v>
+        <v>217.63229466195719</v>
+      </c>
+      <c r="I62">
+        <f>RANK(H62, H2:H80)</f>
+        <v>41</v>
       </c>
       <c r="J62" t="s">
         <v>12</v>
@@ -3078,28 +3087,28 @@
         <v>135</v>
       </c>
       <c r="C63">
-        <v>314.73988189965172</v>
-      </c>
-      <c r="D63" t="e">
-        <f>RANK(C63, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>281.98948130003549</v>
+      </c>
+      <c r="D63">
+        <f>RANK(C63, C2:C80,1)</f>
+        <v>25</v>
       </c>
       <c r="E63">
-        <v>1.0732907722053779</v>
+        <v>1.072924378296626</v>
       </c>
       <c r="F63">
-        <v>129</v>
-      </c>
-      <c r="G63" t="e">
-        <f>RANK(F63, F2:F50)</f>
-        <v>#N/A</v>
+        <v>132</v>
+      </c>
+      <c r="G63">
+        <f>RANK(F63, F2:F80)</f>
+        <v>62</v>
       </c>
       <c r="H63">
-        <v>138.45450961449379</v>
-      </c>
-      <c r="I63" t="e">
-        <f>RANK(H63, H2:H50)</f>
-        <v>#N/A</v>
+        <v>141.62601793515461</v>
+      </c>
+      <c r="I63">
+        <f>RANK(H63, H2:H80)</f>
+        <v>62</v>
       </c>
       <c r="J63" t="s">
         <v>12</v>
@@ -3113,28 +3122,28 @@
         <v>137</v>
       </c>
       <c r="C64">
-        <v>279.29597999981343</v>
-      </c>
-      <c r="D64" t="e">
-        <f>RANK(C64, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>230.78516690007021</v>
+      </c>
+      <c r="D64">
+        <f>RANK(C64, C2:C80,1)</f>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>1.0817660018552471</v>
+        <v>1.0875689421889649</v>
       </c>
       <c r="F64">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G64">
-        <f>RANK(F64, F2:F50)</f>
-        <v>42</v>
+        <f>RANK(F64, F2:F80)</f>
+        <v>68</v>
       </c>
       <c r="H64">
-        <v>103.8495361781037</v>
-      </c>
-      <c r="I64" t="e">
-        <f>RANK(H64, H2:H50)</f>
-        <v>#N/A</v>
+        <v>106.5817563345185</v>
+      </c>
+      <c r="I64">
+        <f>RANK(H64, H2:H80)</f>
+        <v>68</v>
       </c>
       <c r="J64" t="s">
         <v>12</v>
@@ -3148,28 +3157,28 @@
         <v>139</v>
       </c>
       <c r="C65">
-        <v>324.24658139993699</v>
-      </c>
-      <c r="D65" t="e">
-        <f>RANK(C65, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>288.82758809998268</v>
+      </c>
+      <c r="D65">
+        <f>RANK(C65, C2:C80,1)</f>
+        <v>39</v>
       </c>
       <c r="E65">
-        <v>1.0713089529973061</v>
+        <v>1.071332119233348</v>
       </c>
       <c r="F65">
-        <v>86</v>
-      </c>
-      <c r="G65" t="e">
-        <f>RANK(F65, F2:F50)</f>
-        <v>#N/A</v>
+        <v>84</v>
+      </c>
+      <c r="G65">
+        <f>RANK(F65, F2:F80)</f>
+        <v>71</v>
       </c>
       <c r="H65">
-        <v>92.132569957768325</v>
-      </c>
-      <c r="I65" t="e">
-        <f>RANK(H65, H2:H50)</f>
-        <v>#N/A</v>
+        <v>89.991898015601251</v>
+      </c>
+      <c r="I65">
+        <f>RANK(H65, H2:H80)</f>
+        <v>71</v>
       </c>
       <c r="J65" t="s">
         <v>12</v>
@@ -3183,28 +3192,28 @@
         <v>141</v>
       </c>
       <c r="C66">
-        <v>303.22250660008291</v>
-      </c>
-      <c r="D66" t="e">
-        <f>RANK(C66, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>270.09785830017432</v>
+      </c>
+      <c r="D66">
+        <f>RANK(C66, C2:C80,1)</f>
+        <v>13</v>
       </c>
       <c r="E66">
-        <v>1.0758448467120161</v>
+        <v>1.07586993250539</v>
       </c>
       <c r="F66">
-        <v>118</v>
-      </c>
-      <c r="G66" t="e">
-        <f>RANK(F66, F2:F50)</f>
-        <v>#N/A</v>
+        <v>122</v>
+      </c>
+      <c r="G66">
+        <f>RANK(F66, F2:F80)</f>
+        <v>65</v>
       </c>
       <c r="H66">
-        <v>126.9496919120179</v>
-      </c>
-      <c r="I66" t="e">
-        <f>RANK(H66, H2:H50)</f>
-        <v>#N/A</v>
+        <v>131.25613176565761</v>
+      </c>
+      <c r="I66">
+        <f>RANK(H66, H2:H80)</f>
+        <v>65</v>
       </c>
       <c r="J66" t="s">
         <v>12</v>
@@ -3218,28 +3227,28 @@
         <v>143</v>
       </c>
       <c r="C67">
-        <v>3367.8306047996589</v>
-      </c>
-      <c r="D67" t="e">
-        <f>RANK(C67, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>3415.9258325996452</v>
+      </c>
+      <c r="D67">
+        <f>RANK(C67, C2:C80,1)</f>
+        <v>76</v>
       </c>
       <c r="E67">
-        <v>1.007397879619345</v>
+        <v>1.006505975791625</v>
       </c>
       <c r="F67">
-        <v>175</v>
-      </c>
-      <c r="G67" t="e">
-        <f>RANK(F67, F2:F50)</f>
-        <v>#N/A</v>
+        <v>181</v>
+      </c>
+      <c r="G67">
+        <f>RANK(F67, F2:F80)</f>
+        <v>51</v>
       </c>
       <c r="H67">
-        <v>176.29462893338541</v>
-      </c>
-      <c r="I67" t="e">
-        <f>RANK(H67, H2:H50)</f>
-        <v>#N/A</v>
+        <v>182.17758161828411</v>
+      </c>
+      <c r="I67">
+        <f>RANK(H67, H2:H80)</f>
+        <v>54</v>
       </c>
       <c r="J67" t="s">
         <v>12</v>
@@ -3253,11 +3262,11 @@
         <v>145</v>
       </c>
       <c r="C68">
-        <v>148.9288958000252</v>
-      </c>
-      <c r="D68" t="e">
-        <f>RANK(C68, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>199.78763680007609</v>
+      </c>
+      <c r="D68">
+        <f>RANK(C68, C2:C80,1)</f>
+        <v>3</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3266,15 +3275,15 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <f>RANK(F68, F2:F50)</f>
-        <v>48</v>
+        <f>RANK(F68, F2:F80)</f>
+        <v>76</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <f>RANK(H68, H2:H50)</f>
-        <v>48</v>
+        <f>RANK(H68, H2:H80)</f>
+        <v>76</v>
       </c>
       <c r="J68" t="s">
         <v>27</v>
@@ -3288,28 +3297,28 @@
         <v>147</v>
       </c>
       <c r="C69">
-        <v>313.94980810006382</v>
-      </c>
-      <c r="D69" t="e">
-        <f>RANK(C69, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>281.28377479964553</v>
+      </c>
+      <c r="D69">
+        <f>RANK(C69, C2:C80,1)</f>
+        <v>23</v>
       </c>
       <c r="E69">
-        <v>1.07346045653351</v>
+        <v>1.073092768133419</v>
       </c>
       <c r="F69">
-        <v>243</v>
-      </c>
-      <c r="G69" t="e">
-        <f>RANK(F69, F2:F50)</f>
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="G69">
+        <f>RANK(F69, F2:F80)</f>
+        <v>25</v>
       </c>
       <c r="H69">
-        <v>260.85089093764299</v>
-      </c>
-      <c r="I69" t="e">
-        <f>RANK(H69, H2:H50)</f>
-        <v>#N/A</v>
+        <v>269.34628480148831</v>
+      </c>
+      <c r="I69">
+        <f>RANK(H69, H2:H80)</f>
+        <v>25</v>
       </c>
       <c r="J69" t="s">
         <v>12</v>
@@ -3323,28 +3332,28 @@
         <v>149</v>
       </c>
       <c r="C70">
-        <v>361.11511030011019</v>
-      </c>
-      <c r="D70" t="e">
-        <f>RANK(C70, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>309.91425529994382</v>
+      </c>
+      <c r="D70">
+        <f>RANK(C70, C2:C80,1)</f>
+        <v>54</v>
       </c>
       <c r="E70">
-        <v>1.0645424176681191</v>
+        <v>1.066833066259864</v>
       </c>
       <c r="F70">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G70">
-        <f>RANK(F70, F2:F50)</f>
-        <v>10</v>
+        <f>RANK(F70, F2:F80)</f>
+        <v>14</v>
       </c>
       <c r="H70">
-        <v>325.74997980644429</v>
-      </c>
-      <c r="I70" t="e">
-        <f>RANK(H70, H2:H50)</f>
-        <v>#N/A</v>
+        <v>327.51775134177808</v>
+      </c>
+      <c r="I70">
+        <f>RANK(H70, H2:H80)</f>
+        <v>14</v>
       </c>
       <c r="J70" t="s">
         <v>12</v>
@@ -3358,28 +3367,28 @@
         <v>151</v>
       </c>
       <c r="C71">
-        <v>336.75995619986497</v>
-      </c>
-      <c r="D71" t="e">
-        <f>RANK(C71, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>284.33924130033847</v>
+      </c>
+      <c r="D71">
+        <f>RANK(C71, C2:C80,1)</f>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>1.068858445605811</v>
+        <v>1.072369260855021</v>
       </c>
       <c r="F71">
-        <v>120</v>
-      </c>
-      <c r="G71" t="e">
-        <f>RANK(F71, F2:F50)</f>
-        <v>#N/A</v>
+        <v>123</v>
+      </c>
+      <c r="G71">
+        <f>RANK(F71, F2:F80)</f>
+        <v>64</v>
       </c>
       <c r="H71">
-        <v>128.26301347269731</v>
-      </c>
-      <c r="I71" t="e">
-        <f>RANK(H71, H2:H50)</f>
-        <v>#N/A</v>
+        <v>131.90141908516759</v>
+      </c>
+      <c r="I71">
+        <f>RANK(H71, H2:H80)</f>
+        <v>64</v>
       </c>
       <c r="J71" t="s">
         <v>12</v>
@@ -3393,28 +3402,28 @@
         <v>153</v>
       </c>
       <c r="C72">
-        <v>346.46176310024748</v>
-      </c>
-      <c r="D72" t="e">
-        <f>RANK(C72, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>288.18150929993129</v>
+      </c>
+      <c r="D72">
+        <f>RANK(C72, C2:C80,1)</f>
+        <v>37</v>
       </c>
       <c r="E72">
-        <v>1.067071656881396</v>
+        <v>1.0714795719513139</v>
       </c>
       <c r="F72">
-        <v>195</v>
-      </c>
-      <c r="G72" t="e">
-        <f>RANK(F72, F2:F50)</f>
-        <v>#N/A</v>
+        <v>192</v>
+      </c>
+      <c r="G72">
+        <f>RANK(F72, F2:F80)</f>
+        <v>47</v>
       </c>
       <c r="H72">
-        <v>208.07897309187231</v>
-      </c>
-      <c r="I72" t="e">
-        <f>RANK(H72, H2:H50)</f>
-        <v>#N/A</v>
+        <v>205.7240778146523</v>
+      </c>
+      <c r="I72">
+        <f>RANK(H72, H2:H80)</f>
+        <v>47</v>
       </c>
       <c r="J72" t="s">
         <v>12</v>
@@ -3428,28 +3437,28 @@
         <v>155</v>
       </c>
       <c r="C73">
-        <v>984.47886880016449</v>
-      </c>
-      <c r="D73" t="e">
-        <f>RANK(C73, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>715.96317980004096</v>
+      </c>
+      <c r="D73">
+        <f>RANK(C73, C2:C80,1)</f>
+        <v>71</v>
       </c>
       <c r="E73">
-        <v>1.0248024758476491</v>
+        <v>1.0301995159868309</v>
       </c>
       <c r="F73">
-        <v>344</v>
-      </c>
-      <c r="G73" t="e">
-        <f>RANK(F73, F2:F50)</f>
-        <v>#N/A</v>
+        <v>350</v>
+      </c>
+      <c r="G73">
+        <f>RANK(F73, F2:F80)</f>
+        <v>7</v>
       </c>
       <c r="H73">
-        <v>352.53205169159128</v>
-      </c>
-      <c r="I73" t="e">
-        <f>RANK(H73, H2:H50)</f>
-        <v>#N/A</v>
+        <v>360.56983059539073</v>
+      </c>
+      <c r="I73">
+        <f>RANK(H73, H2:H80)</f>
+        <v>7</v>
       </c>
       <c r="J73" t="s">
         <v>12</v>
@@ -3463,28 +3472,28 @@
         <v>157</v>
       </c>
       <c r="C74">
-        <v>1318.2140529003079</v>
-      </c>
-      <c r="D74" t="e">
-        <f>RANK(C74, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>913.79434459983167</v>
+      </c>
+      <c r="D74">
+        <f>RANK(C74, C2:C80,1)</f>
+        <v>72</v>
       </c>
       <c r="E74">
-        <v>1.0186558245854509</v>
+        <v>1.0238372589994429</v>
       </c>
       <c r="F74">
-        <v>310</v>
-      </c>
-      <c r="G74" t="e">
-        <f>RANK(F74, F2:F50)</f>
-        <v>#N/A</v>
+        <v>323</v>
+      </c>
+      <c r="G74">
+        <f>RANK(F74, F2:F80)</f>
+        <v>12</v>
       </c>
       <c r="H74">
-        <v>315.78330562148972</v>
-      </c>
-      <c r="I74" t="e">
-        <f>RANK(H74, H2:H50)</f>
-        <v>#N/A</v>
+        <v>330.69943465682007</v>
+      </c>
+      <c r="I74">
+        <f>RANK(H74, H2:H80)</f>
+        <v>13</v>
       </c>
       <c r="J74" t="s">
         <v>12</v>
@@ -3498,28 +3507,28 @@
         <v>159</v>
       </c>
       <c r="C75">
-        <v>331.09696199990867</v>
-      </c>
-      <c r="D75" t="e">
-        <f>RANK(C75, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>280.46422829999938</v>
+      </c>
+      <c r="D75">
+        <f>RANK(C75, C2:C80,1)</f>
+        <v>22</v>
       </c>
       <c r="E75">
-        <v>1.0699461972075239</v>
+        <v>1.0732893024198891</v>
       </c>
       <c r="F75">
         <v>259</v>
       </c>
-      <c r="G75" t="e">
-        <f>RANK(F75, F2:F50)</f>
-        <v>#N/A</v>
+      <c r="G75">
+        <f>RANK(F75, F2:F80)</f>
+        <v>24</v>
       </c>
       <c r="H75">
-        <v>277.11606507674878</v>
-      </c>
-      <c r="I75" t="e">
-        <f>RANK(H75, H2:H50)</f>
-        <v>#N/A</v>
+        <v>277.98192932675119</v>
+      </c>
+      <c r="I75">
+        <f>RANK(H75, H2:H80)</f>
+        <v>24</v>
       </c>
       <c r="J75" t="s">
         <v>12</v>
@@ -3533,28 +3542,28 @@
         <v>161</v>
       </c>
       <c r="C76">
-        <v>316.42572910002491</v>
-      </c>
-      <c r="D76" t="e">
-        <f>RANK(C76, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>274.08941810015682</v>
+      </c>
+      <c r="D76">
+        <f>RANK(C76, C2:C80,1)</f>
+        <v>16</v>
       </c>
       <c r="E76">
-        <v>1.0729313165878711</v>
+        <v>1.0748549826202849</v>
       </c>
       <c r="F76">
-        <v>186</v>
-      </c>
-      <c r="G76" t="e">
-        <f>RANK(F76, F2:F50)</f>
-        <v>#N/A</v>
+        <v>195</v>
+      </c>
+      <c r="G76">
+        <f>RANK(F76, F2:F80)</f>
+        <v>44</v>
       </c>
       <c r="H76">
-        <v>199.56522488534401</v>
-      </c>
-      <c r="I76" t="e">
-        <f>RANK(H76, H2:H50)</f>
-        <v>#N/A</v>
+        <v>209.5967216109556</v>
+      </c>
+      <c r="I76">
+        <f>RANK(H76, H2:H80)</f>
+        <v>45</v>
       </c>
       <c r="J76" t="s">
         <v>12</v>
@@ -3568,28 +3577,28 @@
         <v>163</v>
       </c>
       <c r="C77">
-        <v>330.77295389999199</v>
-      </c>
-      <c r="D77" t="e">
-        <f>RANK(C77, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>293.37439890009767</v>
+      </c>
+      <c r="D77">
+        <f>RANK(C77, C2:C80,1)</f>
+        <v>48</v>
       </c>
       <c r="E77">
-        <v>1.0700094754681471</v>
+        <v>1.0703114099695179</v>
       </c>
       <c r="F77">
-        <v>267</v>
-      </c>
-      <c r="G77" t="e">
-        <f>RANK(F77, F2:F50)</f>
-        <v>#N/A</v>
+        <v>264</v>
+      </c>
+      <c r="G77">
+        <f>RANK(F77, F2:F80)</f>
+        <v>23</v>
       </c>
       <c r="H77">
-        <v>285.69252994999522</v>
-      </c>
-      <c r="I77" t="e">
-        <f>RANK(H77, H2:H50)</f>
-        <v>#N/A</v>
+        <v>282.56221223195269</v>
+      </c>
+      <c r="I77">
+        <f>RANK(H77, H2:H80)</f>
+        <v>23</v>
       </c>
       <c r="J77" t="s">
         <v>12</v>
@@ -3603,11 +3612,11 @@
         <v>165</v>
       </c>
       <c r="C78">
-        <v>21.856318300022391</v>
-      </c>
-      <c r="D78" t="e">
-        <f>RANK(C78, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>28.890808999982259</v>
+      </c>
+      <c r="D78">
+        <f>RANK(C78, C2:C80,1)</f>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3616,15 +3625,15 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <f>RANK(F78, F2:F50)</f>
-        <v>48</v>
+        <f>RANK(F78, F2:F80)</f>
+        <v>76</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <f>RANK(H78, H2:H50)</f>
-        <v>48</v>
+        <f>RANK(H78, H2:H80)</f>
+        <v>76</v>
       </c>
       <c r="J78" t="s">
         <v>27</v>
@@ -3638,31 +3647,37 @@
         <v>167</v>
       </c>
       <c r="C79">
-        <v>318.50322739988769</v>
-      </c>
-      <c r="D79" t="e">
-        <f>RANK(C79, C2:C50,1)</f>
-        <v>#N/A</v>
+        <v>282.93602980015203</v>
+      </c>
+      <c r="D79">
+        <f>RANK(C79, C2:C80,1)</f>
+        <v>26</v>
       </c>
       <c r="E79">
-        <v>1.0724931850956541</v>
+        <v>1.072699738048974</v>
       </c>
       <c r="F79">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="G79">
-        <f>RANK(F79, F2:F50)</f>
-        <v>30</v>
+        <f>RANK(F79, F2:F80)</f>
+        <v>59</v>
       </c>
       <c r="H79">
-        <v>195.193759687409</v>
-      </c>
-      <c r="I79" t="e">
-        <f>RANK(H79, H2:H50)</f>
-        <v>#N/A</v>
+        <v>164.12305992149311</v>
+      </c>
+      <c r="I79">
+        <f>RANK(H79, H2:H80)</f>
+        <v>59</v>
       </c>
       <c r="J79" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="1">
+        <f>SUM(C2:C79)</f>
+        <v>40215.013221399146</v>
       </c>
     </row>
   </sheetData>
